--- a/JSON Parser - Blank Data Generator/Z-Resources/InputSchemaReference.xlsx
+++ b/JSON Parser - Blank Data Generator/Z-Resources/InputSchemaReference.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Repo\JSON Parser - Blank Data Generator\Z-Resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -1186,13 +1191,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1201,19 +1200,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1222,32 +1212,47 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1258,6 +1263,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1306,7 +1314,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1341,7 +1349,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1553,3732 +1561,3661 @@
   <dimension ref="A1:K172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4" t="s">
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4" t="s">
+      <c r="G5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4" t="s">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3" t="s">
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="14" t="s">
+      <c r="I9" s="14"/>
+      <c r="J9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="2"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="2"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4" t="s">
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="3" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="4" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4" t="s">
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
+      <c r="I15" s="2"/>
+      <c r="J15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="4" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4" t="s">
+      <c r="I16" s="3"/>
+      <c r="J16" s="3" t="s">
         <v>42</v>
       </c>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" ht="57" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="4" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3" t="s">
+      <c r="I19" s="2"/>
+      <c r="J19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="4" t="s">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="19"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="11"/>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="4" t="s">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4" t="s">
+      <c r="I22" s="3"/>
+      <c r="J22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="3" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="6" t="s">
+      <c r="I23" s="2"/>
+      <c r="J23" s="4" t="s">
         <v>11</v>
       </c>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4" t="s">
+      <c r="A24" s="9"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="4" t="s">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4" t="s">
+      <c r="I24" s="3"/>
+      <c r="J24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
+      <c r="A25" s="10"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="3" t="s">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3" t="s">
+      <c r="I25" s="2"/>
+      <c r="J25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4" t="s">
+      <c r="A26" s="9"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="4" t="s">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4" t="s">
+      <c r="I26" s="3"/>
+      <c r="J26" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3" t="s">
+      <c r="A27" s="10"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="3" t="s">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3" t="s">
+      <c r="I27" s="2"/>
+      <c r="J27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4" t="s">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="19"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="11"/>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3" t="s">
+      <c r="A29" s="10"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3" t="s">
+      <c r="I29" s="2"/>
+      <c r="J29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4" t="s">
+      <c r="A30" s="9"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="4" t="s">
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4" t="s">
+      <c r="I30" s="3"/>
+      <c r="J30" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3" t="s">
+      <c r="A31" s="10"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3" t="s">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4" t="s">
+      <c r="A32" s="9"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" s="4" t="s">
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4" t="s">
+      <c r="I32" s="3"/>
+      <c r="J32" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3" t="s">
+      <c r="A33" s="10"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3" t="s">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4" t="s">
+      <c r="A34" s="9"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" s="4" t="s">
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4" t="s">
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7" t="s">
+      <c r="A35" s="21"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="7" t="s">
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3" t="s">
+      <c r="A37" s="10"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H37" s="3" t="s">
+      <c r="E37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3" t="s">
+      <c r="I37" s="2"/>
+      <c r="J37" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4" t="s">
+      <c r="A38" s="9"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H38" s="4" t="s">
+      <c r="E38" s="3"/>
+      <c r="F38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4" t="s">
+      <c r="I38" s="3"/>
+      <c r="J38" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3" t="s">
+      <c r="A39" s="10"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" s="3" t="s">
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4" t="s">
+      <c r="A40" s="9"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H40" s="4" t="s">
+      <c r="E40" s="3"/>
+      <c r="F40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4" t="s">
+      <c r="I40" s="3"/>
+      <c r="J40" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3" t="s">
+      <c r="A41" s="10"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" s="3" t="s">
+      <c r="E41" s="2"/>
+      <c r="F41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3" t="s">
+      <c r="I41" s="2"/>
+      <c r="J41" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4" t="s">
+      <c r="A42" s="9"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" s="4" t="s">
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H42" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
       <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3" t="s">
+      <c r="A43" s="10"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="3" t="s">
+      <c r="E43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3" t="s">
+      <c r="I43" s="2"/>
+      <c r="J43" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4" t="s">
+      <c r="A44" s="9"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="4" t="s">
+      <c r="E44" s="3"/>
+      <c r="F44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4" t="s">
+      <c r="I44" s="3"/>
+      <c r="J44" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3" t="s">
+      <c r="A45" s="10"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" s="3" t="s">
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3" t="s">
+      <c r="I45" s="2"/>
+      <c r="J45" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4" t="s">
+      <c r="A46" s="9"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" s="4" t="s">
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="H46" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4" t="s">
+      <c r="I46" s="3"/>
+      <c r="J46" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="1:11" ht="114" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3" t="s">
+      <c r="A47" s="10"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" s="3" t="s">
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H47" s="3"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="6" t="s">
+      <c r="H47" s="2"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="4" t="s">
         <v>92</v>
       </c>
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4" t="s">
+      <c r="A48" s="9"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="4" t="s">
+      <c r="E48" s="3"/>
+      <c r="F48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4" t="s">
+      <c r="I48" s="3"/>
+      <c r="J48" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3" t="s">
+      <c r="A49" s="10"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="3" t="s">
+      <c r="E49" s="2"/>
+      <c r="F49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3" t="s">
+      <c r="I49" s="2"/>
+      <c r="J49" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4" t="s">
+      <c r="A50" s="9"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H50" s="4" t="s">
+      <c r="E50" s="3"/>
+      <c r="F50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4" t="s">
+      <c r="I50" s="3"/>
+      <c r="J50" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K50" s="1"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3" t="s">
+      <c r="A51" s="10"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H51" s="3" t="s">
+      <c r="E51" s="2"/>
+      <c r="F51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3" t="s">
+      <c r="I51" s="2"/>
+      <c r="J51" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K51" s="1"/>
     </row>
     <row r="52" spans="1:11" ht="57" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4" t="s">
+      <c r="A52" s="9"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" s="4" t="s">
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="H52" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4" t="s">
+      <c r="I52" s="3"/>
+      <c r="J52" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:11" ht="156.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3" t="s">
+      <c r="A53" s="10"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" s="3" t="s">
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="H53" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I53" s="21"/>
-      <c r="J53" s="6" t="s">
+      <c r="I53" s="12"/>
+      <c r="J53" s="4" t="s">
         <v>105</v>
       </c>
       <c r="K53" s="1"/>
     </row>
     <row r="54" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4" t="s">
+      <c r="A54" s="9"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H54" s="4" t="s">
+      <c r="E54" s="3"/>
+      <c r="F54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4" t="s">
+      <c r="I54" s="3"/>
+      <c r="J54" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K54" s="1"/>
     </row>
     <row r="55" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3" t="s">
+      <c r="A55" s="10"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H55" s="3" t="s">
+      <c r="E55" s="2"/>
+      <c r="F55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
       <c r="K55" s="1"/>
     </row>
     <row r="56" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4" t="s">
+      <c r="A56" s="9"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H56" s="4" t="s">
+      <c r="E56" s="3"/>
+      <c r="F56" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
       <c r="K56" s="1"/>
     </row>
     <row r="57" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="17"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3" t="s">
+      <c r="A57" s="10"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H57" s="3" t="s">
+      <c r="E57" s="2"/>
+      <c r="F57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
       <c r="K57" s="1"/>
     </row>
     <row r="58" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="16"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4" t="s">
+      <c r="A58" s="9"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="4" t="s">
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I58" s="4" t="s">
+      <c r="I58" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="J58" s="4" t="s">
+      <c r="J58" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K58" s="1"/>
     </row>
     <row r="59" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="17"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3" t="s">
+      <c r="A59" s="10"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" s="3" t="s">
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="I59" s="3" t="s">
+      <c r="I59" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="J59" s="6" t="s">
+      <c r="J59" s="4" t="s">
         <v>116</v>
       </c>
       <c r="K59" s="1"/>
     </row>
     <row r="60" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4" t="s">
+      <c r="A60" s="9"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" s="4" t="s">
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H60" s="4" t="s">
+      <c r="H60" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I60" s="4"/>
-      <c r="J60" s="8" t="s">
+      <c r="I60" s="3"/>
+      <c r="J60" s="5" t="s">
         <v>119</v>
       </c>
       <c r="K60" s="1"/>
     </row>
     <row r="61" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="17"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3" t="s">
+      <c r="A61" s="10"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3" t="s">
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="G61" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="H61" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
       <c r="K61" s="1"/>
     </row>
     <row r="62" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="16"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4" t="s">
+      <c r="A62" s="9"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
       <c r="K62" s="1"/>
     </row>
     <row r="63" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3" t="s">
+      <c r="A63" s="10"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" s="3" t="s">
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="H63" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
       <c r="K63" s="1"/>
     </row>
     <row r="64" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="16"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4" t="s">
+      <c r="A64" s="9"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" s="4" t="s">
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H64" s="4" t="s">
+      <c r="H64" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
       <c r="K64" s="1"/>
     </row>
     <row r="65" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="17"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3" t="s">
+      <c r="A65" s="10"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" s="3" t="s">
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="H65" s="3" t="s">
+      <c r="H65" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="I65" s="3"/>
-      <c r="J65" s="6" t="s">
+      <c r="I65" s="2"/>
+      <c r="J65" s="4" t="s">
         <v>11</v>
       </c>
       <c r="K65" s="1"/>
     </row>
     <row r="66" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="16"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4" t="s">
+      <c r="A66" s="9"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H66" s="4" t="s">
+      <c r="E66" s="3"/>
+      <c r="F66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
       <c r="K66" s="1"/>
     </row>
     <row r="67" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="17"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3" t="s">
+      <c r="A67" s="10"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H67" s="3" t="s">
+      <c r="E67" s="2"/>
+      <c r="F67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H67" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3" t="s">
+      <c r="I67" s="2"/>
+      <c r="J67" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K67" s="1"/>
     </row>
     <row r="68" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="16"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4" t="s">
+      <c r="A68" s="9"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" s="4" t="s">
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="H68" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
       <c r="K68" s="1"/>
     </row>
     <row r="69" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="17"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3" t="s">
+      <c r="A69" s="10"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" s="3" t="s">
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H69" s="3" t="s">
+      <c r="H69" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
       <c r="K69" s="1"/>
     </row>
     <row r="70" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="16"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4" t="s">
+      <c r="A70" s="9"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H70" s="4" t="s">
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H70" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
       <c r="K70" s="1"/>
     </row>
     <row r="71" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="17"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3" t="s">
+      <c r="A71" s="10"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" s="3" t="s">
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H71" s="3" t="s">
+      <c r="H71" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
       <c r="K71" s="1"/>
     </row>
     <row r="72" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="16"/>
-      <c r="B72" s="4" t="s">
+      <c r="A72" s="9"/>
+      <c r="B72" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" s="4" t="s">
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H72" s="4" t="s">
+      <c r="H72" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
       <c r="K72" s="1"/>
     </row>
     <row r="73" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="17"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3" t="s">
+      <c r="A73" s="10"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73" s="3" t="s">
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H73" s="3" t="s">
+      <c r="H73" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3" t="s">
+      <c r="I73" s="2"/>
+      <c r="J73" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K73" s="1"/>
     </row>
     <row r="74" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="16"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4" t="s">
+      <c r="A74" s="9"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H74" s="4" t="s">
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H74" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
       <c r="K74" s="1"/>
     </row>
     <row r="75" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="20"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7" t="s">
+      <c r="A75" s="21"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H75" s="3"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G75" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H75" s="2"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="18"/>
       <c r="K75" s="1"/>
     </row>
     <row r="76" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="20"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="4" t="s">
+      <c r="A76" s="21"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="18"/>
       <c r="K76" s="1"/>
     </row>
     <row r="77" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="17"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3" t="s">
+      <c r="A77" s="10"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H77" s="3" t="s">
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
       <c r="K77" s="1"/>
     </row>
     <row r="78" spans="1:11" ht="57" x14ac:dyDescent="0.25">
-      <c r="A78" s="16"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4" t="s">
+      <c r="A78" s="9"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H78" s="4" t="s">
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H78" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
       <c r="K78" s="1"/>
     </row>
     <row r="79" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="17"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3" t="s">
+      <c r="A79" s="10"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H79" s="3" t="s">
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H79" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
       <c r="K79" s="1"/>
     </row>
     <row r="80" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="16"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4" t="s">
+      <c r="A80" s="9"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" s="4" t="s">
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G80" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H80" s="4" t="s">
+      <c r="H80" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="I80" s="4"/>
-      <c r="J80" s="9" t="s">
+      <c r="I80" s="3"/>
+      <c r="J80" s="6" t="s">
         <v>153</v>
       </c>
       <c r="K80" s="1"/>
     </row>
     <row r="81" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="17"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3" t="s">
+      <c r="A81" s="10"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H81" s="3" t="s">
+      <c r="E81" s="2"/>
+      <c r="F81" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H81" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
       <c r="K81" s="1"/>
     </row>
     <row r="82" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="16"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4" t="s">
+      <c r="A82" s="9"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H82" s="4" t="s">
+      <c r="E82" s="3"/>
+      <c r="F82" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H82" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
       <c r="K82" s="1"/>
     </row>
     <row r="83" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="20"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7" t="s">
+      <c r="A83" s="21"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" s="7" t="s">
+      <c r="E83" s="18"/>
+      <c r="F83" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G83" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H83" s="3" t="s">
+      <c r="H83" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="I83" s="7"/>
-      <c r="J83" s="10" t="s">
+      <c r="I83" s="18"/>
+      <c r="J83" s="20" t="s">
         <v>158</v>
       </c>
       <c r="K83" s="1"/>
     </row>
     <row r="84" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="20"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="4" t="s">
+      <c r="A84" s="21"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="I84" s="7"/>
-      <c r="J84" s="10"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="20"/>
       <c r="K84" s="1"/>
     </row>
     <row r="85" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="17"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3" t="s">
+      <c r="A85" s="10"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F85" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H85" s="3" t="s">
+      <c r="F85" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H85" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="I85" s="3"/>
-      <c r="J85" s="6" t="s">
+      <c r="I85" s="2"/>
+      <c r="J85" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K85" s="1"/>
     </row>
     <row r="86" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="16"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4" t="s">
+      <c r="A86" s="9"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="F86" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H86" s="4" t="s">
+      <c r="F86" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H86" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
       <c r="K86" s="1"/>
     </row>
     <row r="87" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="20"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7" t="s">
+      <c r="A87" s="21"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="F87" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H87" s="3"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
+      <c r="F87" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G87" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H87" s="2"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="18"/>
       <c r="K87" s="1"/>
     </row>
     <row r="88" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="20"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="4" t="s">
+      <c r="A88" s="21"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="18"/>
       <c r="K88" s="1"/>
     </row>
     <row r="89" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="17"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3" t="s">
+      <c r="A89" s="10"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
+      <c r="F89" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
       <c r="K89" s="1"/>
     </row>
     <row r="90" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="16"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4" t="s">
+      <c r="A90" s="9"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F90" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H90" s="4" t="s">
+      <c r="F90" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H90" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4" t="s">
+      <c r="I90" s="3"/>
+      <c r="J90" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K90" s="1"/>
     </row>
     <row r="91" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="17"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3" t="s">
+      <c r="A91" s="10"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
+      <c r="F91" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
       <c r="K91" s="1"/>
     </row>
     <row r="92" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="16"/>
-      <c r="B92" s="4" t="s">
+      <c r="A92" s="9"/>
+      <c r="B92" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" s="4" t="s">
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G92" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H92" s="4" t="s">
+      <c r="H92" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
       <c r="K92" s="1"/>
     </row>
     <row r="93" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="17"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3" t="s">
+      <c r="A93" s="10"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H93" s="3" t="s">
+      <c r="E93" s="2"/>
+      <c r="F93" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H93" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3" t="s">
+      <c r="I93" s="2"/>
+      <c r="J93" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K93" s="1"/>
     </row>
     <row r="94" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="18"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5" t="s">
+      <c r="A94" s="19"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" s="5" t="s">
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G94" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H94" s="4"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="11" t="s">
+      <c r="H94" s="3"/>
+      <c r="I94" s="14"/>
+      <c r="J94" s="22" t="s">
         <v>11</v>
       </c>
       <c r="K94" s="1"/>
     </row>
     <row r="95" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="18"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="3" t="s">
+      <c r="A95" s="19"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="I95" s="5"/>
-      <c r="J95" s="11"/>
+      <c r="I95" s="14"/>
+      <c r="J95" s="22"/>
       <c r="K95" s="1"/>
     </row>
     <row r="96" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="18"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="4" t="s">
+      <c r="A96" s="19"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="I96" s="5"/>
-      <c r="J96" s="11"/>
+      <c r="I96" s="14"/>
+      <c r="J96" s="22"/>
       <c r="K96" s="1"/>
     </row>
     <row r="97" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="17"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3" t="s">
+      <c r="A97" s="10"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G97" s="3" t="s">
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H97" s="3" t="s">
+      <c r="H97" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="I97" s="3"/>
-      <c r="J97" s="6" t="s">
+      <c r="I97" s="2"/>
+      <c r="J97" s="4" t="s">
         <v>11</v>
       </c>
       <c r="K97" s="1"/>
     </row>
     <row r="98" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="16"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
+      <c r="A98" s="9"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
       <c r="K98" s="1"/>
     </row>
     <row r="99" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="17"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3" t="s">
+      <c r="A99" s="10"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G99" s="3" t="s">
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="H99" s="3" t="s">
+      <c r="H99" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
       <c r="K99" s="1"/>
     </row>
     <row r="100" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="16"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4" t="s">
+      <c r="A100" s="9"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H100" s="4" t="s">
+      <c r="E100" s="3"/>
+      <c r="F100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="I100" s="4"/>
-      <c r="J100" s="8" t="s">
+      <c r="I100" s="3"/>
+      <c r="J100" s="5" t="s">
         <v>13</v>
       </c>
       <c r="K100" s="1"/>
     </row>
     <row r="101" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="17"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3" t="s">
+      <c r="A101" s="10"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H101" s="3" t="s">
+      <c r="E101" s="2"/>
+      <c r="F101" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
       <c r="K101" s="1"/>
     </row>
     <row r="102" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="16"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4" t="s">
+      <c r="A102" s="9"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G102" s="4" t="s">
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G102" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="H102" s="4" t="s">
+      <c r="H102" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="I102" s="4"/>
-      <c r="J102" s="4"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
       <c r="K102" s="1"/>
     </row>
     <row r="103" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="17"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3" t="s">
+      <c r="A103" s="10"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H103" s="3" t="s">
+      <c r="E103" s="2"/>
+      <c r="F103" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H103" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="I103" s="3"/>
-      <c r="J103" s="6" t="s">
+      <c r="I103" s="2"/>
+      <c r="J103" s="4" t="s">
         <v>158</v>
       </c>
       <c r="K103" s="1"/>
     </row>
     <row r="104" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="16"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4" t="s">
+      <c r="A104" s="9"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H104" s="4" t="s">
+      <c r="E104" s="3"/>
+      <c r="F104" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H104" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="I104" s="4"/>
-      <c r="J104" s="4"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
       <c r="K104" s="1"/>
     </row>
     <row r="105" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="17"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3" t="s">
+      <c r="A105" s="10"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G105" s="3" t="s">
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="H105" s="3" t="s">
+      <c r="H105" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
       <c r="K105" s="1"/>
     </row>
     <row r="106" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="16"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4" t="s">
+      <c r="A106" s="9"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H106" s="4" t="s">
+      <c r="E106" s="3"/>
+      <c r="F106" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H106" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="I106" s="4"/>
-      <c r="J106" s="4"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
       <c r="K106" s="1"/>
     </row>
     <row r="107" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="17"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3" t="s">
+      <c r="A107" s="10"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H107" s="3" t="s">
+      <c r="E107" s="2"/>
+      <c r="F107" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H107" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
       <c r="K107" s="1"/>
     </row>
     <row r="108" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="16"/>
-      <c r="B108" s="4" t="s">
+      <c r="A108" s="9"/>
+      <c r="B108" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G108" s="4" t="s">
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G108" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H108" s="4" t="s">
+      <c r="H108" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="I108" s="4"/>
-      <c r="J108" s="4"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
       <c r="K108" s="1"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="20"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7" t="s">
+      <c r="A109" s="21"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G109" s="7" t="s">
+      <c r="D109" s="18"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G109" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H109" s="3" t="s">
+      <c r="H109" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="I109" s="7" t="s">
+      <c r="I109" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="J109" s="10" t="s">
+      <c r="J109" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K109" s="2"/>
+      <c r="K109" s="15"/>
     </row>
     <row r="110" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="20"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="3" t="s">
+      <c r="A110" s="21"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="18"/>
+      <c r="H110" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="I110" s="7"/>
-      <c r="J110" s="10"/>
-      <c r="K110" s="2"/>
+      <c r="I110" s="18"/>
+      <c r="J110" s="20"/>
+      <c r="K110" s="15"/>
     </row>
     <row r="111" spans="1:11" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="16"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="4" t="s">
+      <c r="A111" s="9"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G111" s="4" t="s">
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G111" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H111" s="4" t="s">
+      <c r="H111" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="I111" s="8" t="s">
+      <c r="I111" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="J111" s="8" t="s">
+      <c r="J111" s="5" t="s">
         <v>200</v>
       </c>
       <c r="K111" s="1"/>
     </row>
     <row r="112" spans="1:11" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A112" s="20"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7" t="s">
+      <c r="A112" s="21"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G112" s="7" t="s">
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G112" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
-      <c r="J112" s="6" t="s">
+      <c r="H112" s="18"/>
+      <c r="I112" s="18"/>
+      <c r="J112" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="K112" s="2"/>
+      <c r="K112" s="15"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="20"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
-      <c r="J113" s="6" t="s">
+      <c r="A113" s="21"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="18"/>
+      <c r="H113" s="18"/>
+      <c r="I113" s="18"/>
+      <c r="J113" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="K113" s="2"/>
+      <c r="K113" s="15"/>
     </row>
     <row r="114" spans="1:11" ht="57" x14ac:dyDescent="0.25">
-      <c r="A114" s="20"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
-      <c r="H114" s="7"/>
-      <c r="I114" s="7"/>
-      <c r="J114" s="6" t="s">
+      <c r="A114" s="21"/>
+      <c r="B114" s="18"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="18"/>
+      <c r="H114" s="18"/>
+      <c r="I114" s="18"/>
+      <c r="J114" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="K114" s="2"/>
+      <c r="K114" s="15"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="20"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
-      <c r="H115" s="7"/>
-      <c r="I115" s="7"/>
-      <c r="J115" s="6" t="s">
+      <c r="A115" s="21"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="18"/>
+      <c r="J115" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="K115" s="2"/>
+      <c r="K115" s="15"/>
     </row>
     <row r="116" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="16"/>
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4" t="s">
+      <c r="A116" s="9"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G116" s="4" t="s">
+      <c r="E116" s="3"/>
+      <c r="F116" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G116" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H116" s="4" t="s">
+      <c r="H116" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="I116" s="4"/>
-      <c r="J116" s="4"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
       <c r="K116" s="1"/>
     </row>
     <row r="117" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="17"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3" t="s">
+      <c r="A117" s="10"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G117" s="3" t="s">
+      <c r="E117" s="2"/>
+      <c r="F117" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H117" s="3" t="s">
+      <c r="H117" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="I117" s="3"/>
-      <c r="J117" s="6" t="s">
+      <c r="I117" s="2"/>
+      <c r="J117" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K117" s="1"/>
     </row>
     <row r="118" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="16"/>
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4" t="s">
+      <c r="A118" s="9"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G118" s="4" t="s">
+      <c r="E118" s="3"/>
+      <c r="F118" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G118" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="H118" s="4" t="s">
+      <c r="H118" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="I118" s="4"/>
-      <c r="J118" s="8" t="s">
+      <c r="I118" s="3"/>
+      <c r="J118" s="5" t="s">
         <v>158</v>
       </c>
       <c r="K118" s="1"/>
     </row>
     <row r="119" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="17"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3" t="s">
+      <c r="A119" s="10"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="F119" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H119" s="3" t="s">
+      <c r="F119" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H119" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="I119" s="3"/>
-      <c r="J119" s="6" t="s">
+      <c r="I119" s="2"/>
+      <c r="J119" s="4" t="s">
         <v>158</v>
       </c>
       <c r="K119" s="1"/>
     </row>
     <row r="120" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="16"/>
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4" t="s">
+      <c r="A120" s="9"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F120" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H120" s="4" t="s">
+      <c r="F120" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H120" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="I120" s="4"/>
-      <c r="J120" s="4"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
       <c r="K120" s="1"/>
     </row>
     <row r="121" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="17"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3" t="s">
+      <c r="A121" s="10"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F121" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H121" s="3" t="s">
+      <c r="F121" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H121" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="I121" s="3"/>
-      <c r="J121" s="3"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
       <c r="K121" s="1"/>
     </row>
     <row r="122" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="16"/>
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="4" t="s">
+      <c r="A122" s="9"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="F122" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G122" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H122" s="4" t="s">
+      <c r="F122" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H122" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="I122" s="4"/>
-      <c r="J122" s="8" t="s">
+      <c r="I122" s="3"/>
+      <c r="J122" s="5" t="s">
         <v>158</v>
       </c>
       <c r="K122" s="1"/>
     </row>
     <row r="123" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="17"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
-      <c r="E123" s="3" t="s">
+      <c r="A123" s="10"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="F123" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H123" s="3" t="s">
+      <c r="F123" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H123" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="I123" s="3"/>
-      <c r="J123" s="6" t="s">
+      <c r="I123" s="2"/>
+      <c r="J123" s="4" t="s">
         <v>158</v>
       </c>
       <c r="K123" s="1"/>
     </row>
     <row r="124" spans="1:11" ht="57" x14ac:dyDescent="0.25">
-      <c r="A124" s="16"/>
-      <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="4" t="s">
+      <c r="A124" s="9"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="F124" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G124" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H124" s="4" t="s">
+      <c r="F124" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H124" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="I124" s="4"/>
-      <c r="J124" s="8" t="s">
+      <c r="I124" s="3"/>
+      <c r="J124" s="5" t="s">
         <v>158</v>
       </c>
       <c r="K124" s="1"/>
     </row>
     <row r="125" spans="1:11" ht="57" x14ac:dyDescent="0.25">
-      <c r="A125" s="17"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3" t="s">
+      <c r="A125" s="10"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F125" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H125" s="3" t="s">
+      <c r="F125" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H125" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="I125" s="3"/>
-      <c r="J125" s="6" t="s">
+      <c r="I125" s="2"/>
+      <c r="J125" s="4" t="s">
         <v>158</v>
       </c>
       <c r="K125" s="1"/>
     </row>
     <row r="126" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="16"/>
-      <c r="B126" s="4"/>
-      <c r="C126" s="4" t="s">
+      <c r="A126" s="9"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D126" s="4"/>
-      <c r="E126" s="4"/>
-      <c r="F126" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G126" s="4" t="s">
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G126" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H126" s="4" t="s">
+      <c r="H126" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="I126" s="4"/>
-      <c r="J126" s="4"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3"/>
       <c r="K126" s="1"/>
     </row>
     <row r="127" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="17"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3" t="s">
+      <c r="A127" s="10"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H127" s="3" t="s">
+      <c r="E127" s="2"/>
+      <c r="F127" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H127" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="I127" s="3"/>
-      <c r="J127" s="12" t="s">
+      <c r="I127" s="2"/>
+      <c r="J127" s="7" t="s">
         <v>153</v>
       </c>
       <c r="K127" s="1"/>
     </row>
     <row r="128" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="16"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4" t="s">
+      <c r="A128" s="9"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E128" s="4"/>
-      <c r="F128" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G128" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H128" s="4" t="s">
+      <c r="E128" s="3"/>
+      <c r="F128" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H128" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="I128" s="4"/>
-      <c r="J128" s="4"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
       <c r="K128" s="1"/>
     </row>
     <row r="129" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="17"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3" t="s">
+      <c r="A129" s="10"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G129" s="3" t="s">
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="H129" s="3"/>
-      <c r="I129" s="3"/>
-      <c r="J129" s="3"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
       <c r="K129" s="1"/>
     </row>
     <row r="130" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="16"/>
-      <c r="B130" s="4"/>
-      <c r="C130" s="4" t="s">
+      <c r="A130" s="9"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D130" s="4"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G130" s="4" t="s">
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G130" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="H130" s="4" t="s">
+      <c r="H130" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="I130" s="4"/>
-      <c r="J130" s="19"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="11"/>
       <c r="K130" s="1"/>
     </row>
     <row r="131" spans="1:11" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="17"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="3" t="s">
+      <c r="A131" s="10"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G131" s="3" t="s">
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H131" s="3" t="s">
+      <c r="H131" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="I131" s="3"/>
-      <c r="J131" s="6" t="s">
+      <c r="I131" s="2"/>
+      <c r="J131" s="4" t="s">
         <v>238</v>
       </c>
       <c r="K131" s="1"/>
     </row>
     <row r="132" spans="1:11" ht="141" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="18"/>
-      <c r="B132" s="5"/>
-      <c r="C132" s="5" t="s">
+      <c r="A132" s="19"/>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G132" s="5" t="s">
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G132" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="H132" s="5" t="s">
+      <c r="H132" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="I132" s="5"/>
-      <c r="J132" s="4" t="s">
+      <c r="I132" s="14"/>
+      <c r="J132" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="K132" s="2"/>
+      <c r="K132" s="15"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="18"/>
-      <c r="B133" s="5"/>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="5"/>
-      <c r="G133" s="5"/>
-      <c r="H133" s="5"/>
-      <c r="I133" s="5"/>
-      <c r="J133" s="8" t="s">
+      <c r="A133" s="19"/>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c r="G133" s="14"/>
+      <c r="H133" s="14"/>
+      <c r="I133" s="14"/>
+      <c r="J133" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="K133" s="2"/>
+      <c r="K133" s="15"/>
     </row>
     <row r="134" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="17"/>
-      <c r="B134" s="3" t="s">
+      <c r="A134" s="10"/>
+      <c r="B134" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G134" s="3" t="s">
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H134" s="3" t="s">
+      <c r="H134" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="I134" s="21"/>
-      <c r="J134" s="3"/>
+      <c r="I134" s="12"/>
+      <c r="J134" s="2"/>
       <c r="K134" s="1"/>
     </row>
     <row r="135" spans="1:11" ht="57" x14ac:dyDescent="0.25">
-      <c r="A135" s="16"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="4" t="s">
+      <c r="A135" s="9"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D135" s="4"/>
-      <c r="E135" s="4"/>
-      <c r="F135" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G135" s="4" t="s">
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G135" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H135" s="4" t="s">
+      <c r="H135" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="I135" s="4"/>
-      <c r="J135" s="4"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="3"/>
       <c r="K135" s="1"/>
     </row>
     <row r="136" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="17"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="3" t="s">
+      <c r="A136" s="10"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G136" s="3" t="s">
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H136" s="3"/>
-      <c r="I136" s="3"/>
-      <c r="J136" s="3"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
       <c r="K136" s="1"/>
     </row>
     <row r="137" spans="1:11" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A137" s="16"/>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4" t="s">
+      <c r="A137" s="9"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D137" s="4"/>
-      <c r="E137" s="4"/>
-      <c r="F137" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G137" s="4" t="s">
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G137" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="H137" s="4" t="s">
+      <c r="H137" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="I137" s="4"/>
-      <c r="J137" s="4"/>
+      <c r="I137" s="3"/>
+      <c r="J137" s="3"/>
       <c r="K137" s="1"/>
     </row>
     <row r="138" spans="1:11" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A138" s="17"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="3" t="s">
+      <c r="A138" s="10"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G138" s="3" t="s">
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="H138" s="3" t="s">
+      <c r="H138" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="I138" s="3"/>
-      <c r="J138" s="3"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2"/>
       <c r="K138" s="1"/>
     </row>
     <row r="139" spans="1:11" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A139" s="16"/>
-      <c r="B139" s="4" t="s">
+      <c r="A139" s="9"/>
+      <c r="B139" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="4"/>
-      <c r="F139" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G139" s="4" t="s">
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G139" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H139" s="4" t="s">
+      <c r="H139" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="I139" s="4"/>
-      <c r="J139" s="8" t="s">
+      <c r="I139" s="3"/>
+      <c r="J139" s="5" t="s">
         <v>255</v>
       </c>
       <c r="K139" s="1"/>
     </row>
     <row r="140" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="17"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="3" t="s">
+      <c r="A140" s="10"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G140" s="3" t="s">
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H140" s="3" t="s">
+      <c r="H140" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="I140" s="3"/>
-      <c r="J140" s="3"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2"/>
       <c r="K140" s="1"/>
     </row>
     <row r="141" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="16"/>
-      <c r="B141" s="4"/>
-      <c r="C141" s="4" t="s">
+      <c r="A141" s="9"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D141" s="4"/>
-      <c r="E141" s="4"/>
-      <c r="F141" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G141" s="4" t="s">
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G141" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H141" s="4" t="s">
+      <c r="H141" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="I141" s="4"/>
-      <c r="J141" s="4"/>
+      <c r="I141" s="3"/>
+      <c r="J141" s="3"/>
       <c r="K141" s="1"/>
     </row>
     <row r="142" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="17"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="3" t="s">
+      <c r="A142" s="10"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
-      <c r="F142" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G142" s="3" t="s">
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H142" s="3" t="s">
+      <c r="H142" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="I142" s="3"/>
-      <c r="J142" s="3"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2"/>
       <c r="K142" s="1"/>
     </row>
     <row r="143" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="16"/>
-      <c r="B143" s="4"/>
-      <c r="C143" s="4" t="s">
+      <c r="A143" s="9"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
-      <c r="F143" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G143" s="4" t="s">
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G143" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H143" s="4" t="s">
+      <c r="H143" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="I143" s="4"/>
-      <c r="J143" s="4"/>
+      <c r="I143" s="3"/>
+      <c r="J143" s="3"/>
       <c r="K143" s="1"/>
     </row>
     <row r="144" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="17"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="3" t="s">
+      <c r="A144" s="10"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
-      <c r="F144" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G144" s="3" t="s">
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H144" s="3" t="s">
+      <c r="H144" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="I144" s="3"/>
-      <c r="J144" s="3"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
       <c r="K144" s="1"/>
     </row>
     <row r="145" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="16"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4" t="s">
+      <c r="A145" s="9"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D145" s="4"/>
-      <c r="E145" s="4"/>
-      <c r="F145" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G145" s="4" t="s">
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G145" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H145" s="4" t="s">
+      <c r="H145" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="I145" s="4"/>
-      <c r="J145" s="4"/>
+      <c r="I145" s="3"/>
+      <c r="J145" s="3"/>
       <c r="K145" s="1"/>
     </row>
     <row r="146" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="17"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="3" t="s">
+      <c r="A146" s="10"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D146" s="3"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G146" s="3" t="s">
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H146" s="3" t="s">
+      <c r="H146" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="I146" s="3"/>
-      <c r="J146" s="3"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
       <c r="K146" s="1"/>
     </row>
     <row r="147" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="16"/>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4" t="s">
+      <c r="A147" s="9"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G147" s="4" t="s">
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G147" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H147" s="4" t="s">
+      <c r="H147" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I147" s="4"/>
-      <c r="J147" s="4"/>
+      <c r="I147" s="3"/>
+      <c r="J147" s="3"/>
       <c r="K147" s="1"/>
     </row>
     <row r="148" spans="1:11" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A148" s="17"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="3" t="s">
+      <c r="A148" s="10"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G148" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H148" s="3" t="s">
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H148" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="I148" s="3"/>
-      <c r="J148" s="3"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
       <c r="K148" s="1"/>
     </row>
     <row r="149" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="16"/>
-      <c r="B149" s="4"/>
-      <c r="C149" s="4" t="s">
+      <c r="A149" s="9"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D149" s="4"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G149" s="4" t="s">
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G149" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H149" s="4" t="s">
+      <c r="H149" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="I149" s="4"/>
-      <c r="J149" s="4"/>
+      <c r="I149" s="3"/>
+      <c r="J149" s="3"/>
       <c r="K149" s="1"/>
     </row>
     <row r="150" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="17"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="3" t="s">
+      <c r="A150" s="10"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G150" s="3" t="s">
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H150" s="3" t="s">
+      <c r="H150" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="I150" s="3"/>
-      <c r="J150" s="3"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
       <c r="K150" s="1"/>
     </row>
     <row r="151" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="16"/>
-      <c r="B151" s="4"/>
-      <c r="C151" s="4" t="s">
+      <c r="A151" s="9"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D151" s="4"/>
-      <c r="E151" s="4"/>
-      <c r="F151" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G151" s="4" t="s">
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G151" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H151" s="4" t="s">
+      <c r="H151" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="I151" s="4"/>
-      <c r="J151" s="4"/>
+      <c r="I151" s="3"/>
+      <c r="J151" s="3"/>
       <c r="K151" s="1"/>
     </row>
     <row r="152" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="17"/>
-      <c r="B152" s="3"/>
-      <c r="C152" s="3" t="s">
+      <c r="A152" s="10"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D152" s="3"/>
-      <c r="E152" s="3"/>
-      <c r="F152" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G152" s="3" t="s">
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H152" s="3" t="s">
+      <c r="H152" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="I152" s="3"/>
-      <c r="J152" s="3"/>
+      <c r="I152" s="2"/>
+      <c r="J152" s="2"/>
       <c r="K152" s="1"/>
     </row>
     <row r="153" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="16"/>
-      <c r="B153" s="4"/>
-      <c r="C153" s="4" t="s">
+      <c r="A153" s="9"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D153" s="4"/>
-      <c r="E153" s="4"/>
-      <c r="F153" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G153" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H153" s="4" t="s">
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H153" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="I153" s="4"/>
-      <c r="J153" s="4"/>
+      <c r="I153" s="3"/>
+      <c r="J153" s="3"/>
       <c r="K153" s="1"/>
     </row>
     <row r="154" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="17"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="3" t="s">
+      <c r="A154" s="10"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D154" s="3"/>
-      <c r="E154" s="3"/>
-      <c r="F154" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G154" s="3" t="s">
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H154" s="3" t="s">
+      <c r="H154" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="I154" s="3"/>
-      <c r="J154" s="3"/>
+      <c r="I154" s="2"/>
+      <c r="J154" s="2"/>
       <c r="K154" s="1"/>
     </row>
     <row r="155" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="16"/>
-      <c r="B155" s="4"/>
-      <c r="C155" s="4" t="s">
+      <c r="A155" s="9"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D155" s="4"/>
-      <c r="E155" s="4"/>
-      <c r="F155" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G155" s="4" t="s">
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G155" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H155" s="4" t="s">
+      <c r="H155" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="I155" s="4"/>
-      <c r="J155" s="4"/>
+      <c r="I155" s="3"/>
+      <c r="J155" s="3"/>
       <c r="K155" s="1"/>
     </row>
     <row r="156" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="17"/>
-      <c r="B156" s="3"/>
-      <c r="C156" s="3" t="s">
+      <c r="A156" s="10"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D156" s="3"/>
-      <c r="E156" s="3"/>
-      <c r="F156" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G156" s="3" t="s">
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="H156" s="3"/>
-      <c r="I156" s="3"/>
-      <c r="J156" s="3"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
+      <c r="J156" s="2"/>
       <c r="K156" s="1"/>
     </row>
     <row r="157" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A157" s="16"/>
-      <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
-      <c r="E157" s="4"/>
-      <c r="F157" s="4"/>
-      <c r="G157" s="4"/>
-      <c r="H157" s="4"/>
-      <c r="I157" s="4"/>
-      <c r="J157" s="4"/>
+      <c r="A157" s="9"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="3"/>
+      <c r="I157" s="3"/>
+      <c r="J157" s="3"/>
       <c r="K157" s="1"/>
     </row>
     <row r="158" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="17"/>
-      <c r="B158" s="3"/>
-      <c r="C158" s="3" t="s">
+      <c r="A158" s="10"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D158" s="3"/>
-      <c r="E158" s="3"/>
-      <c r="F158" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G158" s="3" t="s">
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="H158" s="3" t="s">
+      <c r="H158" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="I158" s="3"/>
-      <c r="J158" s="3"/>
+      <c r="I158" s="2"/>
+      <c r="J158" s="2"/>
       <c r="K158" s="1"/>
     </row>
     <row r="159" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A159" s="16"/>
-      <c r="B159" s="4"/>
-      <c r="C159" s="4"/>
-      <c r="D159" s="4" t="s">
+      <c r="A159" s="9"/>
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="E159" s="4"/>
-      <c r="F159" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G159" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H159" s="4" t="s">
+      <c r="E159" s="3"/>
+      <c r="F159" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H159" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="I159" s="4"/>
-      <c r="J159" s="4"/>
+      <c r="I159" s="3"/>
+      <c r="J159" s="3"/>
       <c r="K159" s="1"/>
     </row>
     <row r="160" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="17"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="3"/>
-      <c r="D160" s="3" t="s">
+      <c r="A160" s="10"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="E160" s="3"/>
-      <c r="F160" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G160" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H160" s="3" t="s">
+      <c r="E160" s="2"/>
+      <c r="F160" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H160" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="I160" s="3"/>
-      <c r="J160" s="3"/>
+      <c r="I160" s="2"/>
+      <c r="J160" s="2"/>
       <c r="K160" s="1"/>
     </row>
     <row r="161" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="16"/>
-      <c r="B161" s="4"/>
-      <c r="C161" s="4"/>
-      <c r="D161" s="4" t="s">
+      <c r="A161" s="9"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="E161" s="4"/>
-      <c r="F161" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G161" s="4" t="s">
+      <c r="E161" s="3"/>
+      <c r="F161" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G161" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H161" s="4" t="s">
+      <c r="H161" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I161" s="4"/>
-      <c r="J161" s="4"/>
+      <c r="I161" s="3"/>
+      <c r="J161" s="3"/>
       <c r="K161" s="1"/>
     </row>
     <row r="162" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="17"/>
-      <c r="B162" s="3"/>
-      <c r="C162" s="3"/>
-      <c r="D162" s="3" t="s">
+      <c r="A162" s="10"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E162" s="3"/>
-      <c r="F162" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G162" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H162" s="3" t="s">
+      <c r="E162" s="2"/>
+      <c r="F162" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H162" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="I162" s="3"/>
-      <c r="J162" s="3"/>
+      <c r="I162" s="2"/>
+      <c r="J162" s="2"/>
       <c r="K162" s="1"/>
     </row>
     <row r="163" spans="1:11" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A163" s="16"/>
-      <c r="B163" s="4" t="s">
+      <c r="A163" s="9"/>
+      <c r="B163" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C163" s="4"/>
-      <c r="D163" s="4"/>
-      <c r="E163" s="4"/>
-      <c r="F163" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G163" s="4" t="s">
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G163" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="H163" s="4" t="s">
+      <c r="H163" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="I163" s="4"/>
-      <c r="J163" s="4"/>
+      <c r="I163" s="3"/>
+      <c r="J163" s="3"/>
       <c r="K163" s="1"/>
     </row>
     <row r="164" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="17"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="3" t="s">
+      <c r="A164" s="10"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G164" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H164" s="3" t="s">
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H164" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="I164" s="3"/>
-      <c r="J164" s="3"/>
+      <c r="I164" s="2"/>
+      <c r="J164" s="2"/>
       <c r="K164" s="1"/>
     </row>
     <row r="165" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="16"/>
-      <c r="B165" s="4"/>
-      <c r="C165" s="4" t="s">
+      <c r="A165" s="9"/>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="D165" s="4"/>
-      <c r="E165" s="4"/>
-      <c r="F165" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G165" s="4" t="s">
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G165" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H165" s="4" t="s">
+      <c r="H165" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="I165" s="4"/>
-      <c r="J165" s="4"/>
+      <c r="I165" s="3"/>
+      <c r="J165" s="3"/>
       <c r="K165" s="1"/>
     </row>
     <row r="166" spans="1:11" ht="57" x14ac:dyDescent="0.25">
-      <c r="A166" s="17"/>
-      <c r="B166" s="3"/>
-      <c r="C166" s="3" t="s">
+      <c r="A166" s="10"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
-      <c r="F166" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G166" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H166" s="3" t="s">
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H166" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="I166" s="3"/>
-      <c r="J166" s="3"/>
+      <c r="I166" s="2"/>
+      <c r="J166" s="2"/>
       <c r="K166" s="1"/>
     </row>
     <row r="167" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A167" s="16"/>
-      <c r="B167" s="4"/>
-      <c r="C167" s="4" t="s">
+      <c r="A167" s="9"/>
+      <c r="B167" s="3"/>
+      <c r="C167" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D167" s="4"/>
-      <c r="E167" s="4"/>
-      <c r="F167" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G167" s="4" t="s">
+      <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
+      <c r="F167" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G167" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H167" s="4" t="s">
+      <c r="H167" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="I167" s="4"/>
-      <c r="J167" s="4"/>
+      <c r="I167" s="3"/>
+      <c r="J167" s="3"/>
       <c r="K167" s="1"/>
     </row>
     <row r="168" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A168" s="17"/>
-      <c r="B168" s="3"/>
-      <c r="C168" s="3" t="s">
+      <c r="A168" s="10"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D168" s="3"/>
-      <c r="E168" s="3"/>
-      <c r="F168" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G168" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H168" s="3" t="s">
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H168" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="I168" s="3"/>
-      <c r="J168" s="3"/>
+      <c r="I168" s="2"/>
+      <c r="J168" s="2"/>
       <c r="K168" s="1"/>
     </row>
     <row r="169" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A169" s="16"/>
-      <c r="B169" s="4"/>
-      <c r="C169" s="4" t="s">
+      <c r="A169" s="9"/>
+      <c r="B169" s="3"/>
+      <c r="C169" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D169" s="4"/>
-      <c r="E169" s="4"/>
-      <c r="F169" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G169" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H169" s="4" t="s">
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H169" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="I169" s="4"/>
-      <c r="J169" s="4"/>
+      <c r="I169" s="3"/>
+      <c r="J169" s="3"/>
       <c r="K169" s="1"/>
     </row>
     <row r="170" spans="1:11" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A170" s="17"/>
-      <c r="B170" s="3"/>
-      <c r="C170" s="3" t="s">
+      <c r="A170" s="10"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="D170" s="3"/>
-      <c r="E170" s="3"/>
-      <c r="F170" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G170" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H170" s="3" t="s">
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H170" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="I170" s="3"/>
-      <c r="J170" s="3"/>
+      <c r="I170" s="2"/>
+      <c r="J170" s="2"/>
       <c r="K170" s="1"/>
     </row>
     <row r="171" spans="1:11" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A171" s="16"/>
-      <c r="B171" s="4"/>
-      <c r="C171" s="4" t="s">
+      <c r="A171" s="9"/>
+      <c r="B171" s="3"/>
+      <c r="C171" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D171" s="4"/>
-      <c r="E171" s="4"/>
-      <c r="F171" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G171" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H171" s="4" t="s">
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H171" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="I171" s="4"/>
-      <c r="J171" s="4"/>
+      <c r="I171" s="3"/>
+      <c r="J171" s="3"/>
       <c r="K171" s="1"/>
     </row>
     <row r="172" spans="1:11" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A172" s="17"/>
-      <c r="B172" s="3"/>
-      <c r="C172" s="3" t="s">
+      <c r="A172" s="10"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D172" s="3"/>
-      <c r="E172" s="3"/>
-      <c r="F172" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G172" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H172" s="3" t="s">
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H172" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="I172" s="3"/>
-      <c r="J172" s="3"/>
+      <c r="I172" s="2"/>
+      <c r="J172" s="2"/>
       <c r="K172" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="G132:G133"/>
-    <mergeCell ref="H132:H133"/>
-    <mergeCell ref="I132:I133"/>
-    <mergeCell ref="K132:K133"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="G112:G115"/>
-    <mergeCell ref="H112:H115"/>
-    <mergeCell ref="I112:I115"/>
-    <mergeCell ref="K112:K115"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="J109:J110"/>
-    <mergeCell ref="K109:K110"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="B112:B115"/>
-    <mergeCell ref="C112:C115"/>
-    <mergeCell ref="D112:D115"/>
-    <mergeCell ref="E112:E115"/>
-    <mergeCell ref="F112:F115"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="E94:E96"/>
-    <mergeCell ref="F94:F96"/>
-    <mergeCell ref="G94:G96"/>
-    <mergeCell ref="I94:I96"/>
-    <mergeCell ref="J94:J96"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
@@ -5295,6 +5232,77 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F94:F96"/>
+    <mergeCell ref="G94:G96"/>
+    <mergeCell ref="I94:I96"/>
+    <mergeCell ref="J94:J96"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="E94:E96"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="C112:C115"/>
+    <mergeCell ref="D112:D115"/>
+    <mergeCell ref="E112:E115"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="J109:J110"/>
+    <mergeCell ref="K109:K110"/>
+    <mergeCell ref="F112:F115"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="H132:H133"/>
+    <mergeCell ref="I132:I133"/>
+    <mergeCell ref="K132:K133"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="G112:G115"/>
+    <mergeCell ref="H112:H115"/>
+    <mergeCell ref="I112:I115"/>
+    <mergeCell ref="K112:K115"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/JSON Parser - Blank Data Generator/Z-Resources/InputSchemaReference.xlsx
+++ b/JSON Parser - Blank Data Generator/Z-Resources/InputSchemaReference.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Repo\JSON Parser - Blank Data Generator\Z-Resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,13 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$H$152</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="444">
   <si>
     <t>Param Name</t>
   </si>
@@ -1054,6 +1050,384 @@
   </si>
   <si>
     <t>Any  notes that the person needs to update while doing maintenance of the vechile</t>
+  </si>
+  <si>
+    <t>XPATH</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/VehicleType/code/</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/VehicleType/name/</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/Make/code/</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/Make/name/</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/Model/name/</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/color/code/</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/color/description/</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/transmissionType/code/</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/transmissionType/name/</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/DriveType/code/</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/DriveType/name/</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/FuelType/code/</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/FuelType/name/</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/Owner/firstName/</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/Owner/lastName/</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/Owner/companyName/</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/Owner/vatId/</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/insured/firstName/</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/insured/lastName/</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/insured/companyName/</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/insured/vatId/</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/euronorm/code/</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/euronorm/name/</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/Seller/adjuster/firstName/</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/Seller/adjuster/lastName/</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/Seller/adjuster/adjusterContactInfo/primaryPhone</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/Seller/adjuster/adjusterContactInfo/primaryPhoneExt</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/Seller/adjuster/adjusterContactInfo/altPhone</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/Seller/adjuster/adjusterContactInfo/altPhoneExt</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/Seller/adjuster/adjusterContactInfo/email</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/Seller/adjuster/adjusterContactInfo/middleName</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/ClaimInfo/claimNumber/ /</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/ClaimInfo/lossType/code/</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/ClaimInfo/lossType/name/</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/ClaimInfo/primaryDamageType/code/</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/ClaimInfo/primaryDamageType/name/</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/ClaimInfo/secondaryDamageType/code/</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/ClaimInfo/secondaryDamageType/name/</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/pickupInfo/location/locationType/</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/pickupInfo/location/name/</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/pickupInfo/location/address/line1</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/pickupInfo/location/address/line2</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/pickupInfo/location/address/line3</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/pickupInfo/location/address/city</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/pickupInfo/location/address/state</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/pickupInfo/location/address/country</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/pickupInfo/location/address/postalCode</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/Charges/CheckInfo/type/</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/Charges/CheckInfo/number/</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/Charges/CheckInfo/amount/</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/Charges/CheckInfo/payee/</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/assignmentType</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/copartCompanyCode</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/registrationNumber</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/yearOfManifecture</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/firstRegistrationDate</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/vin</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/validateVIN</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/modelYear</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/licensePlateNumber</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/odometerReading</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/bodyStyle</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/horsePower</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/engine</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/cylinders</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/co2Emission</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/isOwnerACompany</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/isInsuredACompany</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/keys</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/towable</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/isValueAddedTaxEligible</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/actualCostOfVehicl</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/repairCost</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/residueValue</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/itemValue</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/vehicleLength</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/grossVehicleWeight</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/registrationCertificateNum</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/VechileInfo/isCustomeMakeModel</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/Seller/code</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/Seller/name</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/Seller/companyCode</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/Seller/companyName</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/Seller/countryCode</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/Seller/taxId</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/ClaimInfo/dateClaimReported</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/ClaimInfo/dateOfLoss</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/pickupInfo/pickupRequired</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/pickupInfo/residence</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/pickupInfo/location</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/pickupInfocode/</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/pickupInfoname/</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/pickupInfo/holdForPickup</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/pickupInfo/holdForPickupDate</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/pickupInfo/holdForPickupReason</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/pickupInfo/promisedTripDate</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/bidInfo/isBtba</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/bidInfo/ btbaId</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/bidInfo/buyItNowAmount</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/bidInfo/reserve</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/Charges/towing</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/Charges/towingVat</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/Charges/labor</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/Charges/laborVat</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/Charges/facilityGate</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/Charges/facilityGateVat</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/Charges/tearDown</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/Charges/tearDownVat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/AssignmentEntryData/Charges/storageType </t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/Charges/storage</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/Charges/storageVat</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/Charges/misc</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/Charges/miscVat</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/Charges/miscComments</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/Charges/totalTax</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/Charges/totalCharges</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/serviceOrders/type</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/serviceOrders/amount</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/serviceOrders/status</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/serviceOrders/statusUpdateDate</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/serviceOrders/priority</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/serviceOrders/contact</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/serviceOrders/comment</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/serviceOrders/instructions</t>
+  </si>
+  <si>
+    <t>/AssignmentEntryData/serviceOrders/userNotes</t>
   </si>
 </sst>
 </file>
@@ -1186,7 +1560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1233,10 +1607,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1245,15 +1616,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1314,7 +1689,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1349,7 +1724,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1560,8 +1935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,10 +1946,10 @@
     <col min="3" max="3" width="18.42578125" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="13" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="13" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="13" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1753,7 +2128,7 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="14" t="s">
         <v>24</v>
       </c>
@@ -1770,13 +2145,13 @@
         <v>25</v>
       </c>
       <c r="I9" s="14"/>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="21" t="s">
         <v>26</v>
       </c>
       <c r="K9" s="15"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -1785,7 +2160,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
-      <c r="J10" s="17"/>
+      <c r="J10" s="22"/>
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
@@ -2325,37 +2700,37 @@
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18" t="s">
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="18" t="s">
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="18" t="s">
+      <c r="H35" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
@@ -3197,37 +3572,37 @@
       <c r="K74" s="1"/>
     </row>
     <row r="75" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="21"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18" t="s">
+      <c r="A75" s="16"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" s="18" t="s">
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G75" s="17" t="s">
         <v>8</v>
       </c>
       <c r="H75" s="2"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
       <c r="K75" s="1"/>
     </row>
     <row r="76" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
       <c r="H76" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
       <c r="K76" s="1"/>
     </row>
     <row r="77" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
@@ -3359,40 +3734,40 @@
       <c r="K82" s="1"/>
     </row>
     <row r="83" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="21"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18" t="s">
+      <c r="A83" s="16"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" s="18" t="s">
+      <c r="E83" s="17"/>
+      <c r="F83" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G83" s="17" t="s">
         <v>16</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="I83" s="18"/>
+      <c r="I83" s="17"/>
       <c r="J83" s="20" t="s">
         <v>158</v>
       </c>
       <c r="K83" s="1"/>
     </row>
     <row r="84" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="21"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
       <c r="H84" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="I84" s="18"/>
+      <c r="I84" s="17"/>
       <c r="J84" s="20"/>
       <c r="K84" s="1"/>
     </row>
@@ -3441,37 +3816,37 @@
       <c r="K86" s="1"/>
     </row>
     <row r="87" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="21"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18" t="s">
+      <c r="A87" s="16"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="F87" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G87" s="18" t="s">
+      <c r="F87" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G87" s="17" t="s">
         <v>8</v>
       </c>
       <c r="H87" s="2"/>
-      <c r="I87" s="18"/>
-      <c r="J87" s="18"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
       <c r="K87" s="1"/>
     </row>
     <row r="88" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="21"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
+      <c r="A88" s="16"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
       <c r="H88" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="I88" s="18"/>
-      <c r="J88" s="18"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
       <c r="K88" s="1"/>
     </row>
     <row r="89" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
@@ -3584,7 +3959,7 @@
       <c r="K93" s="1"/>
     </row>
     <row r="94" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="19"/>
+      <c r="A94" s="18"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14" t="s">
         <v>176</v>
@@ -3599,13 +3974,13 @@
       </c>
       <c r="H94" s="3"/>
       <c r="I94" s="14"/>
-      <c r="J94" s="22" t="s">
+      <c r="J94" s="19" t="s">
         <v>11</v>
       </c>
       <c r="K94" s="1"/>
     </row>
     <row r="95" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="19"/>
+      <c r="A95" s="18"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
       <c r="D95" s="14"/>
@@ -3616,11 +3991,11 @@
         <v>177</v>
       </c>
       <c r="I95" s="14"/>
-      <c r="J95" s="22"/>
+      <c r="J95" s="19"/>
       <c r="K95" s="1"/>
     </row>
     <row r="96" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="19"/>
+      <c r="A96" s="18"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
       <c r="D96" s="14"/>
@@ -3631,7 +4006,7 @@
         <v>178</v>
       </c>
       <c r="I96" s="14"/>
-      <c r="J96" s="22"/>
+      <c r="J96" s="19"/>
       <c r="K96" s="1"/>
     </row>
     <row r="97" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
@@ -3885,23 +4260,23 @@
       <c r="K108" s="1"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="21"/>
-      <c r="B109" s="18"/>
-      <c r="C109" s="18" t="s">
+      <c r="A109" s="16"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="D109" s="18"/>
-      <c r="E109" s="18"/>
-      <c r="F109" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G109" s="18" t="s">
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G109" s="17" t="s">
         <v>20</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="I109" s="18" t="s">
+      <c r="I109" s="17" t="s">
         <v>196</v>
       </c>
       <c r="J109" s="20" t="s">
@@ -3910,17 +4285,17 @@
       <c r="K109" s="15"/>
     </row>
     <row r="110" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="21"/>
-      <c r="B110" s="18"/>
-      <c r="C110" s="18"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="18"/>
-      <c r="F110" s="18"/>
-      <c r="G110" s="18"/>
+      <c r="A110" s="16"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="17"/>
       <c r="H110" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="I110" s="18"/>
+      <c r="I110" s="17"/>
       <c r="J110" s="20"/>
       <c r="K110" s="15"/>
     </row>
@@ -3950,66 +4325,66 @@
       <c r="K111" s="1"/>
     </row>
     <row r="112" spans="1:11" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A112" s="21"/>
-      <c r="B112" s="18"/>
-      <c r="C112" s="18" t="s">
+      <c r="A112" s="16"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="D112" s="18"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G112" s="18" t="s">
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G112" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="H112" s="18"/>
-      <c r="I112" s="18"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="17"/>
       <c r="J112" s="4" t="s">
         <v>203</v>
       </c>
       <c r="K112" s="15"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="21"/>
-      <c r="B113" s="18"/>
-      <c r="C113" s="18"/>
-      <c r="D113" s="18"/>
-      <c r="E113" s="18"/>
-      <c r="F113" s="18"/>
-      <c r="G113" s="18"/>
-      <c r="H113" s="18"/>
-      <c r="I113" s="18"/>
+      <c r="A113" s="16"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="17"/>
+      <c r="I113" s="17"/>
       <c r="J113" s="4" t="s">
         <v>204</v>
       </c>
       <c r="K113" s="15"/>
     </row>
     <row r="114" spans="1:11" ht="57" x14ac:dyDescent="0.25">
-      <c r="A114" s="21"/>
-      <c r="B114" s="18"/>
-      <c r="C114" s="18"/>
-      <c r="D114" s="18"/>
-      <c r="E114" s="18"/>
-      <c r="F114" s="18"/>
-      <c r="G114" s="18"/>
-      <c r="H114" s="18"/>
-      <c r="I114" s="18"/>
+      <c r="A114" s="16"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="17"/>
+      <c r="I114" s="17"/>
       <c r="J114" s="4" t="s">
         <v>205</v>
       </c>
       <c r="K114" s="15"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="21"/>
-      <c r="B115" s="18"/>
-      <c r="C115" s="18"/>
-      <c r="D115" s="18"/>
-      <c r="E115" s="18"/>
-      <c r="F115" s="18"/>
-      <c r="G115" s="18"/>
-      <c r="H115" s="18"/>
-      <c r="I115" s="18"/>
+      <c r="A115" s="16"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="17"/>
+      <c r="D115" s="17"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="17"/>
+      <c r="H115" s="17"/>
+      <c r="I115" s="17"/>
       <c r="J115" s="4" t="s">
         <v>206</v>
       </c>
@@ -4368,7 +4743,7 @@
       <c r="K131" s="1"/>
     </row>
     <row r="132" spans="1:11" ht="141" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="19"/>
+      <c r="A132" s="18"/>
       <c r="B132" s="14"/>
       <c r="C132" s="14" t="s">
         <v>239</v>
@@ -4391,7 +4766,7 @@
       <c r="K132" s="15"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="19"/>
+      <c r="A133" s="18"/>
       <c r="B133" s="14"/>
       <c r="C133" s="14"/>
       <c r="D133" s="14"/>
@@ -5216,6 +5591,77 @@
     </row>
   </sheetData>
   <mergeCells count="87">
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="G112:G115"/>
+    <mergeCell ref="H112:H115"/>
+    <mergeCell ref="I112:I115"/>
+    <mergeCell ref="K112:K115"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="J109:J110"/>
+    <mergeCell ref="K109:K110"/>
+    <mergeCell ref="F112:F115"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="H132:H133"/>
+    <mergeCell ref="I132:I133"/>
+    <mergeCell ref="K132:K133"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="C112:C115"/>
+    <mergeCell ref="D112:D115"/>
+    <mergeCell ref="E112:E115"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="E94:E96"/>
+    <mergeCell ref="F94:F96"/>
+    <mergeCell ref="G94:G96"/>
+    <mergeCell ref="I94:I96"/>
+    <mergeCell ref="J94:J96"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
@@ -5232,77 +5678,6 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F94:F96"/>
-    <mergeCell ref="G94:G96"/>
-    <mergeCell ref="I94:I96"/>
-    <mergeCell ref="J94:J96"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="E94:E96"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="B112:B115"/>
-    <mergeCell ref="C112:C115"/>
-    <mergeCell ref="D112:D115"/>
-    <mergeCell ref="E112:E115"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="J109:J110"/>
-    <mergeCell ref="K109:K110"/>
-    <mergeCell ref="F112:F115"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="G132:G133"/>
-    <mergeCell ref="H132:H133"/>
-    <mergeCell ref="I132:I133"/>
-    <mergeCell ref="K132:K133"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="G112:G115"/>
-    <mergeCell ref="H112:H115"/>
-    <mergeCell ref="I112:I115"/>
-    <mergeCell ref="K112:K115"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5311,24 +5686,5322 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G152"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="71.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H38" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H44" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="G48" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="G49" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="G52" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H52" s="23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="G53" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H53" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="G54" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H54" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="G55" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H55" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="G56" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H56" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="G58" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="G59" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="G60" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H60" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="G61" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H61" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="G62" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="G63" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H63" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="G65" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H65" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="G66" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="G67" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H67" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="G68" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="G69" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="G70" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H70" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="G72" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D73" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="G73" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D74" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D75" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E75" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="F75" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="G75" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H75" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D76" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E76" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="F76" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G76" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D77" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="F77" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="G77" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D78" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F78" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="G78" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H78" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D79" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E79" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="F79" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="G79" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H79" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D80" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="F80" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="G80" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H80" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H81" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D82" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="E82" s="23"/>
+      <c r="F82" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="G82" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H82" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C83" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="G83" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H83" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="G84" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H84" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="H85" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C86" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D86" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E86" s="23"/>
+      <c r="F86" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="G86" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H86" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C87" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D87" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="G87" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H87" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="H88" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="D89" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="G89" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C90" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="D90" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="G90" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H90" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C91" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="H91" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C92" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="D92" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="G92" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H92" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C93" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="D93" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="G93" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H93" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="G95" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H95" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C96" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D96" s="23"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="G96" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H96" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C97" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D97" s="23"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="G97" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H97" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C98" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D98" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="E98" s="23"/>
+      <c r="F98" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="G98" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H98" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C99" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D99" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E99" s="23"/>
+      <c r="F99" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="G99" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H99" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B100" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C100" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D100" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="E100" s="23"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" s="23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C101" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D101" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="E101" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="F101" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="G101" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B102" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C102" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D102" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="E102" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="F102" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="G102" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B103" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C103" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D103" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="E103" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="F103" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="G103" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H103" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B104" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C104" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D104" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="E104" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="F104" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="G104" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H104" s="23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B105" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C105" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D105" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="E105" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="F105" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="G105" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H105" s="23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B106" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C106" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D106" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="E106" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="F106" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="G106" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H106" s="23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C107" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D107" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="E107" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="F107" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="G107" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H107" s="23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B108" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C108" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="D108" s="23"/>
+      <c r="E108" s="23"/>
+      <c r="F108" s="23"/>
+      <c r="G108" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H108" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B109" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C109" s="23"/>
+      <c r="D109" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E109" s="23"/>
+      <c r="F109" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="G109" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H109" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B110" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C110" s="23"/>
+      <c r="D110" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E110" s="23"/>
+      <c r="F110" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="G110" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H110" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B111" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C111" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="D111" s="23"/>
+      <c r="E111" s="23"/>
+      <c r="F111" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="G111" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="H111" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C112" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="D112" s="23"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="G112" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="H112" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B113" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C113" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="D113" s="23"/>
+      <c r="E113" s="23"/>
+      <c r="F113" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="G113" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H113" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B114" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C114" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="D114" s="23"/>
+      <c r="E114" s="23"/>
+      <c r="F114" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="G114" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="H114" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B115" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="C115" s="23"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="23"/>
+      <c r="F115" s="23"/>
+      <c r="G115" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H115" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B116" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="C116" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="D116" s="23"/>
+      <c r="E116" s="23"/>
+      <c r="F116" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="G116" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H116" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B117" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="C117" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="D117" s="23"/>
+      <c r="E117" s="23"/>
+      <c r="F117" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="G117" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H117" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B118" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="C118" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="D118" s="23"/>
+      <c r="E118" s="23"/>
+      <c r="F118" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="G118" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="H118" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B119" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="C119" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="D119" s="23"/>
+      <c r="E119" s="23"/>
+      <c r="F119" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="G119" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="H119" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B120" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C120" s="23"/>
+      <c r="D120" s="23"/>
+      <c r="E120" s="23"/>
+      <c r="F120" s="23"/>
+      <c r="G120" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H120" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B121" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C121" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="D121" s="23"/>
+      <c r="E121" s="23"/>
+      <c r="F121" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="G121" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H121" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B122" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C122" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D122" s="23"/>
+      <c r="E122" s="23"/>
+      <c r="F122" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="G122" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H122" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B123" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C123" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="D123" s="23"/>
+      <c r="E123" s="23"/>
+      <c r="F123" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="G123" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H123" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B124" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C124" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="D124" s="23"/>
+      <c r="E124" s="23"/>
+      <c r="F124" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="G124" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H124" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B125" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C125" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="D125" s="23"/>
+      <c r="E125" s="23"/>
+      <c r="F125" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="G125" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H125" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B126" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C126" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="D126" s="23"/>
+      <c r="E126" s="23"/>
+      <c r="F126" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="G126" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H126" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B127" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C127" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="D127" s="23"/>
+      <c r="E127" s="23"/>
+      <c r="F127" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="G127" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H127" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B128" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C128" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="D128" s="23"/>
+      <c r="E128" s="23"/>
+      <c r="F128" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="G128" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H128" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B129" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C129" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="D129" s="23"/>
+      <c r="E129" s="23"/>
+      <c r="F129" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="G129" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H129" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B130" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C130" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="D130" s="23"/>
+      <c r="E130" s="23"/>
+      <c r="F130" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="G130" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H130" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B131" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C131" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="D131" s="23"/>
+      <c r="E131" s="23"/>
+      <c r="F131" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="G131" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H131" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B132" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C132" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="D132" s="23"/>
+      <c r="E132" s="23"/>
+      <c r="F132" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="G132" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H132" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B133" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C133" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="D133" s="23"/>
+      <c r="E133" s="23"/>
+      <c r="F133" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="G133" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H133" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B134" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C134" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="D134" s="23"/>
+      <c r="E134" s="23"/>
+      <c r="F134" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="G134" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H134" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B135" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C135" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="D135" s="23"/>
+      <c r="E135" s="23"/>
+      <c r="F135" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="G135" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H135" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B136" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C136" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="D136" s="23"/>
+      <c r="E136" s="23"/>
+      <c r="F136" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="G136" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H136" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B137" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C137" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="D137" s="23"/>
+      <c r="E137" s="23"/>
+      <c r="F137" s="23"/>
+      <c r="G137" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H137" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B138" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C138" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="D138" s="23"/>
+      <c r="E138" s="23"/>
+      <c r="F138" s="23"/>
+      <c r="G138" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H138" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B139" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C139" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="D139" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="E139" s="23"/>
+      <c r="F139" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="G139" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H139" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B140" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C140" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="D140" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="E140" s="23"/>
+      <c r="F140" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="G140" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H140" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B141" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C141" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="D141" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="E141" s="23"/>
+      <c r="F141" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="G141" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H141" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B142" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C142" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="D142" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="E142" s="23"/>
+      <c r="F142" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="G142" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H142" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B143" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="C143" s="23"/>
+      <c r="D143" s="23"/>
+      <c r="E143" s="23"/>
+      <c r="F143" s="23"/>
+      <c r="G143" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="H143" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B144" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="C144" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="D144" s="23"/>
+      <c r="E144" s="23"/>
+      <c r="F144" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="G144" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H144" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B145" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="C145" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="D145" s="23"/>
+      <c r="E145" s="23"/>
+      <c r="F145" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="G145" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H145" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B146" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="C146" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="D146" s="23"/>
+      <c r="E146" s="23"/>
+      <c r="F146" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="G146" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H146" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B147" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="C147" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="D147" s="23"/>
+      <c r="E147" s="23"/>
+      <c r="F147" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="G147" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H147" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B148" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="C148" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="D148" s="23"/>
+      <c r="E148" s="23"/>
+      <c r="F148" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="G148" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H148" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B149" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="C149" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="D149" s="23"/>
+      <c r="E149" s="23"/>
+      <c r="F149" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="G149" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H149" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B150" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="C150" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="D150" s="23"/>
+      <c r="E150" s="23"/>
+      <c r="F150" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="G150" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H150" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B151" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="C151" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="D151" s="23"/>
+      <c r="E151" s="23"/>
+      <c r="F151" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="G151" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H151" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B152" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="C152" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="D152" s="23"/>
+      <c r="E152" s="23"/>
+      <c r="F152" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="G152" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H152" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H152"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I152"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A140" workbookViewId="0">
+      <selection sqref="A1:I152"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>83</v>
+      </c>
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>87</v>
+      </c>
+      <c r="G37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+      <c r="G38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>93</v>
+      </c>
+      <c r="G40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>95</v>
+      </c>
+      <c r="G41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>97</v>
+      </c>
+      <c r="G42" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>99</v>
+      </c>
+      <c r="G43" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>101</v>
+      </c>
+      <c r="G44" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>103</v>
+      </c>
+      <c r="G45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>93</v>
+      </c>
+      <c r="G46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>95</v>
+      </c>
+      <c r="G47" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>97</v>
+      </c>
+      <c r="G48" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>99</v>
+      </c>
+      <c r="G49" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>110</v>
+      </c>
+      <c r="G50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>113</v>
+      </c>
+      <c r="G51" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>117</v>
+      </c>
+      <c r="G52" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>120</v>
+      </c>
+      <c r="G53" t="s">
+        <v>121</v>
+      </c>
+      <c r="H53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>124</v>
+      </c>
+      <c r="G55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>126</v>
+      </c>
+      <c r="G56" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>128</v>
+      </c>
+      <c r="G57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" t="s">
+        <v>129</v>
+      </c>
+      <c r="I57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>29</v>
+      </c>
+      <c r="G58" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>133</v>
+      </c>
+      <c r="G60" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>135</v>
+      </c>
+      <c r="G61" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>137</v>
+      </c>
+      <c r="G62" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>139</v>
+      </c>
+      <c r="G63" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>141</v>
+      </c>
+      <c r="G64" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" t="s">
+        <v>37</v>
+      </c>
+      <c r="I65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>31</v>
+      </c>
+      <c r="G66" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>145</v>
+      </c>
+      <c r="G67" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>97</v>
+      </c>
+      <c r="G68" t="s">
+        <v>19</v>
+      </c>
+      <c r="H68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="G69" t="s">
+        <v>19</v>
+      </c>
+      <c r="H69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>149</v>
+      </c>
+      <c r="G70" t="s">
+        <v>19</v>
+      </c>
+      <c r="H70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>151</v>
+      </c>
+      <c r="G71" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>93</v>
+      </c>
+      <c r="G72" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>95</v>
+      </c>
+      <c r="G73" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>156</v>
+      </c>
+      <c r="G74" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" t="s">
+        <v>16</v>
+      </c>
+      <c r="I74" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>160</v>
+      </c>
+      <c r="G75" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" t="s">
+        <v>8</v>
+      </c>
+      <c r="I75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>162</v>
+      </c>
+      <c r="G76" t="s">
+        <v>19</v>
+      </c>
+      <c r="H76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>164</v>
+      </c>
+      <c r="G77" t="s">
+        <v>19</v>
+      </c>
+      <c r="H77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>166</v>
+      </c>
+      <c r="G78" t="s">
+        <v>19</v>
+      </c>
+      <c r="H78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>167</v>
+      </c>
+      <c r="G79" t="s">
+        <v>19</v>
+      </c>
+      <c r="H79" t="s">
+        <v>8</v>
+      </c>
+      <c r="I79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>169</v>
+      </c>
+      <c r="G80" t="s">
+        <v>19</v>
+      </c>
+      <c r="H80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>171</v>
+      </c>
+      <c r="G81" t="s">
+        <v>19</v>
+      </c>
+      <c r="H81" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>173</v>
+      </c>
+      <c r="D82" t="s">
+        <v>174</v>
+      </c>
+      <c r="G82" t="s">
+        <v>19</v>
+      </c>
+      <c r="H82" t="s">
+        <v>8</v>
+      </c>
+      <c r="I82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>176</v>
+      </c>
+      <c r="G83" t="s">
+        <v>19</v>
+      </c>
+      <c r="H83" t="s">
+        <v>40</v>
+      </c>
+      <c r="I83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>179</v>
+      </c>
+      <c r="G84" t="s">
+        <v>19</v>
+      </c>
+      <c r="H84" t="s">
+        <v>40</v>
+      </c>
+      <c r="I84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>181</v>
+      </c>
+      <c r="G85" t="s">
+        <v>19</v>
+      </c>
+      <c r="H85" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>29</v>
+      </c>
+      <c r="G86" t="s">
+        <v>19</v>
+      </c>
+      <c r="H86" t="s">
+        <v>8</v>
+      </c>
+      <c r="I86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>31</v>
+      </c>
+      <c r="G87" t="s">
+        <v>19</v>
+      </c>
+      <c r="H87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>186</v>
+      </c>
+      <c r="G88" t="s">
+        <v>19</v>
+      </c>
+      <c r="H88" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>29</v>
+      </c>
+      <c r="G89" t="s">
+        <v>19</v>
+      </c>
+      <c r="H89" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>31</v>
+      </c>
+      <c r="G90" t="s">
+        <v>19</v>
+      </c>
+      <c r="H90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>190</v>
+      </c>
+      <c r="G91" t="s">
+        <v>19</v>
+      </c>
+      <c r="H91" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>29</v>
+      </c>
+      <c r="G92" t="s">
+        <v>19</v>
+      </c>
+      <c r="H92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>31</v>
+      </c>
+      <c r="G93" t="s">
+        <v>19</v>
+      </c>
+      <c r="H93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>191</v>
+      </c>
+      <c r="G94" t="s">
+        <v>19</v>
+      </c>
+      <c r="H94" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>193</v>
+      </c>
+      <c r="G95" t="s">
+        <v>19</v>
+      </c>
+      <c r="H95" t="s">
+        <v>20</v>
+      </c>
+      <c r="I95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>197</v>
+      </c>
+      <c r="G96" t="s">
+        <v>19</v>
+      </c>
+      <c r="H96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>201</v>
+      </c>
+      <c r="G97" t="s">
+        <v>19</v>
+      </c>
+      <c r="H97" t="s">
+        <v>202</v>
+      </c>
+      <c r="I97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>207</v>
+      </c>
+      <c r="G98" t="s">
+        <v>19</v>
+      </c>
+      <c r="H98" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>31</v>
+      </c>
+      <c r="G99" t="s">
+        <v>19</v>
+      </c>
+      <c r="H99" t="s">
+        <v>20</v>
+      </c>
+      <c r="I99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>210</v>
+      </c>
+      <c r="G100" t="s">
+        <v>19</v>
+      </c>
+      <c r="H100" t="s">
+        <v>211</v>
+      </c>
+      <c r="I100" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="101" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>213</v>
+      </c>
+      <c r="G101" t="s">
+        <v>19</v>
+      </c>
+      <c r="H101" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="102" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
+        <v>215</v>
+      </c>
+      <c r="G102" t="s">
+        <v>19</v>
+      </c>
+      <c r="H102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E103" t="s">
+        <v>217</v>
+      </c>
+      <c r="G103" t="s">
+        <v>19</v>
+      </c>
+      <c r="H103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E104" t="s">
+        <v>219</v>
+      </c>
+      <c r="G104" t="s">
+        <v>19</v>
+      </c>
+      <c r="H104" t="s">
+        <v>8</v>
+      </c>
+      <c r="I104" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="105" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E105" t="s">
+        <v>221</v>
+      </c>
+      <c r="G105" t="s">
+        <v>19</v>
+      </c>
+      <c r="H105" t="s">
+        <v>8</v>
+      </c>
+      <c r="I105" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="106" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E106" t="s">
+        <v>223</v>
+      </c>
+      <c r="G106" t="s">
+        <v>19</v>
+      </c>
+      <c r="H106" t="s">
+        <v>8</v>
+      </c>
+      <c r="I106" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="107" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E107" t="s">
+        <v>225</v>
+      </c>
+      <c r="G107" t="s">
+        <v>19</v>
+      </c>
+      <c r="H107" t="s">
+        <v>8</v>
+      </c>
+      <c r="I107" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="108" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>227</v>
+      </c>
+      <c r="G108" t="s">
+        <v>19</v>
+      </c>
+      <c r="H108" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>29</v>
+      </c>
+      <c r="G109" t="s">
+        <v>19</v>
+      </c>
+      <c r="H109" t="s">
+        <v>8</v>
+      </c>
+      <c r="I109" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>31</v>
+      </c>
+      <c r="G110" t="s">
+        <v>19</v>
+      </c>
+      <c r="H110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>231</v>
+      </c>
+      <c r="G111" t="s">
+        <v>19</v>
+      </c>
+      <c r="H111" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="112" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>233</v>
+      </c>
+      <c r="G112" t="s">
+        <v>19</v>
+      </c>
+      <c r="H112" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>236</v>
+      </c>
+      <c r="G113" t="s">
+        <v>19</v>
+      </c>
+      <c r="H113" t="s">
+        <v>20</v>
+      </c>
+      <c r="I113" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>239</v>
+      </c>
+      <c r="G114" t="s">
+        <v>19</v>
+      </c>
+      <c r="H114" t="s">
+        <v>234</v>
+      </c>
+      <c r="I114" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>243</v>
+      </c>
+      <c r="G115" t="s">
+        <v>19</v>
+      </c>
+      <c r="H115" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>245</v>
+      </c>
+      <c r="G116" t="s">
+        <v>19</v>
+      </c>
+      <c r="H116" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>247</v>
+      </c>
+      <c r="G117" t="s">
+        <v>19</v>
+      </c>
+      <c r="H117" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>248</v>
+      </c>
+      <c r="G118" t="s">
+        <v>19</v>
+      </c>
+      <c r="H118" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>251</v>
+      </c>
+      <c r="G119" t="s">
+        <v>19</v>
+      </c>
+      <c r="H119" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>253</v>
+      </c>
+      <c r="G120" t="s">
+        <v>19</v>
+      </c>
+      <c r="H120" t="s">
+        <v>16</v>
+      </c>
+      <c r="I120" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
+        <v>256</v>
+      </c>
+      <c r="G121" t="s">
+        <v>19</v>
+      </c>
+      <c r="H121" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
+        <v>258</v>
+      </c>
+      <c r="G122" t="s">
+        <v>19</v>
+      </c>
+      <c r="H122" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>260</v>
+      </c>
+      <c r="G123" t="s">
+        <v>19</v>
+      </c>
+      <c r="H123" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>262</v>
+      </c>
+      <c r="G124" t="s">
+        <v>19</v>
+      </c>
+      <c r="H124" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>264</v>
+      </c>
+      <c r="G125" t="s">
+        <v>19</v>
+      </c>
+      <c r="H125" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
+        <v>266</v>
+      </c>
+      <c r="G126" t="s">
+        <v>19</v>
+      </c>
+      <c r="H126" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>268</v>
+      </c>
+      <c r="G127" t="s">
+        <v>19</v>
+      </c>
+      <c r="H127" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
+        <v>270</v>
+      </c>
+      <c r="G128" t="s">
+        <v>19</v>
+      </c>
+      <c r="H128" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C129" t="s">
+        <v>272</v>
+      </c>
+      <c r="G129" t="s">
+        <v>19</v>
+      </c>
+      <c r="H129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
+        <v>274</v>
+      </c>
+      <c r="G130" t="s">
+        <v>19</v>
+      </c>
+      <c r="H130" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>276</v>
+      </c>
+      <c r="G131" t="s">
+        <v>19</v>
+      </c>
+      <c r="H131" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
+        <v>278</v>
+      </c>
+      <c r="G132" t="s">
+        <v>19</v>
+      </c>
+      <c r="H132" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
+        <v>280</v>
+      </c>
+      <c r="G133" t="s">
+        <v>19</v>
+      </c>
+      <c r="H133" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C134" t="s">
+        <v>282</v>
+      </c>
+      <c r="G134" t="s">
+        <v>19</v>
+      </c>
+      <c r="H134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>284</v>
+      </c>
+      <c r="G135" t="s">
+        <v>19</v>
+      </c>
+      <c r="H135" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>286</v>
+      </c>
+      <c r="G136" t="s">
+        <v>19</v>
+      </c>
+      <c r="H136" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
+        <v>288</v>
+      </c>
+      <c r="G137" t="s">
+        <v>19</v>
+      </c>
+      <c r="H137" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>289</v>
+      </c>
+      <c r="G138" t="s">
+        <v>19</v>
+      </c>
+      <c r="H138" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
+        <v>292</v>
+      </c>
+      <c r="G139" t="s">
+        <v>19</v>
+      </c>
+      <c r="H139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>294</v>
+      </c>
+      <c r="G140" t="s">
+        <v>19</v>
+      </c>
+      <c r="H140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>296</v>
+      </c>
+      <c r="G141" t="s">
+        <v>19</v>
+      </c>
+      <c r="H141" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>298</v>
+      </c>
+      <c r="G142" t="s">
+        <v>19</v>
+      </c>
+      <c r="H142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>300</v>
+      </c>
+      <c r="G143" t="s">
+        <v>19</v>
+      </c>
+      <c r="H143" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
+        <v>292</v>
+      </c>
+      <c r="G144" t="s">
+        <v>19</v>
+      </c>
+      <c r="H144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
+        <v>296</v>
+      </c>
+      <c r="G145" t="s">
+        <v>19</v>
+      </c>
+      <c r="H145" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="146" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C146" t="s">
+        <v>304</v>
+      </c>
+      <c r="G146" t="s">
+        <v>19</v>
+      </c>
+      <c r="H146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C147" t="s">
+        <v>306</v>
+      </c>
+      <c r="G147" t="s">
+        <v>19</v>
+      </c>
+      <c r="H147" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="148" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C148" t="s">
+        <v>308</v>
+      </c>
+      <c r="G148" t="s">
+        <v>19</v>
+      </c>
+      <c r="H148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C149" t="s">
+        <v>310</v>
+      </c>
+      <c r="G149" t="s">
+        <v>19</v>
+      </c>
+      <c r="H149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C150" t="s">
+        <v>312</v>
+      </c>
+      <c r="G150" t="s">
+        <v>19</v>
+      </c>
+      <c r="H150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C151" t="s">
+        <v>314</v>
+      </c>
+      <c r="G151" t="s">
+        <v>19</v>
+      </c>
+      <c r="H151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C152" t="s">
+        <v>316</v>
+      </c>
+      <c r="G152" t="s">
+        <v>19</v>
+      </c>
+      <c r="H152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/JSON Parser - Blank Data Generator/Z-Resources/InputSchemaReference.xlsx
+++ b/JSON Parser - Blank Data Generator/Z-Resources/InputSchemaReference.xlsx
@@ -1601,34 +1601,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2128,40 +2128,40 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="14" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="21" t="s">
+      <c r="I9" s="20"/>
+      <c r="J9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="15"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="15"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
@@ -2700,7 +2700,7 @@
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17" t="s">
         <v>75</v>
@@ -2721,7 +2721,7 @@
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
@@ -3572,7 +3572,7 @@
       <c r="K74" s="1"/>
     </row>
     <row r="75" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="16"/>
+      <c r="A75" s="22"/>
       <c r="B75" s="17"/>
       <c r="C75" s="17" t="s">
         <v>145</v>
@@ -3591,7 +3591,7 @@
       <c r="K75" s="1"/>
     </row>
     <row r="76" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="16"/>
+      <c r="A76" s="22"/>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="17"/>
@@ -3734,7 +3734,7 @@
       <c r="K82" s="1"/>
     </row>
     <row r="83" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="16"/>
+      <c r="A83" s="22"/>
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
       <c r="D83" s="17" t="s">
@@ -3751,13 +3751,13 @@
         <v>157</v>
       </c>
       <c r="I83" s="17"/>
-      <c r="J83" s="20" t="s">
+      <c r="J83" s="21" t="s">
         <v>158</v>
       </c>
       <c r="K83" s="1"/>
     </row>
     <row r="84" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="16"/>
+      <c r="A84" s="22"/>
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
       <c r="D84" s="17"/>
@@ -3768,7 +3768,7 @@
         <v>159</v>
       </c>
       <c r="I84" s="17"/>
-      <c r="J84" s="20"/>
+      <c r="J84" s="21"/>
       <c r="K84" s="1"/>
     </row>
     <row r="85" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
@@ -3816,7 +3816,7 @@
       <c r="K86" s="1"/>
     </row>
     <row r="87" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="16"/>
+      <c r="A87" s="22"/>
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
       <c r="D87" s="17"/>
@@ -3835,7 +3835,7 @@
       <c r="K87" s="1"/>
     </row>
     <row r="88" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="16"/>
+      <c r="A88" s="22"/>
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
       <c r="D88" s="17"/>
@@ -3959,54 +3959,54 @@
       <c r="K93" s="1"/>
     </row>
     <row r="94" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="18"/>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14" t="s">
+      <c r="A94" s="19"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" s="14" t="s">
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G94" s="20" t="s">
         <v>40</v>
       </c>
       <c r="H94" s="3"/>
-      <c r="I94" s="14"/>
-      <c r="J94" s="19" t="s">
+      <c r="I94" s="20"/>
+      <c r="J94" s="23" t="s">
         <v>11</v>
       </c>
       <c r="K94" s="1"/>
     </row>
     <row r="95" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="18"/>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
+      <c r="A95" s="19"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="20"/>
       <c r="H95" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="I95" s="14"/>
-      <c r="J95" s="19"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="23"/>
       <c r="K95" s="1"/>
     </row>
     <row r="96" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="18"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
+      <c r="A96" s="19"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20"/>
       <c r="H96" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="I96" s="14"/>
-      <c r="J96" s="19"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="23"/>
       <c r="K96" s="1"/>
     </row>
     <row r="97" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
@@ -4260,7 +4260,7 @@
       <c r="K108" s="1"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="16"/>
+      <c r="A109" s="22"/>
       <c r="B109" s="17"/>
       <c r="C109" s="17" t="s">
         <v>193</v>
@@ -4279,13 +4279,13 @@
       <c r="I109" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="J109" s="20" t="s">
+      <c r="J109" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="K109" s="15"/>
+      <c r="K109" s="18"/>
     </row>
     <row r="110" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="16"/>
+      <c r="A110" s="22"/>
       <c r="B110" s="17"/>
       <c r="C110" s="17"/>
       <c r="D110" s="17"/>
@@ -4296,8 +4296,8 @@
         <v>195</v>
       </c>
       <c r="I110" s="17"/>
-      <c r="J110" s="20"/>
-      <c r="K110" s="15"/>
+      <c r="J110" s="21"/>
+      <c r="K110" s="18"/>
     </row>
     <row r="111" spans="1:11" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A111" s="9"/>
@@ -4325,7 +4325,7 @@
       <c r="K111" s="1"/>
     </row>
     <row r="112" spans="1:11" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A112" s="16"/>
+      <c r="A112" s="22"/>
       <c r="B112" s="17"/>
       <c r="C112" s="17" t="s">
         <v>201</v>
@@ -4343,10 +4343,10 @@
       <c r="J112" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="K112" s="15"/>
+      <c r="K112" s="18"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="16"/>
+      <c r="A113" s="22"/>
       <c r="B113" s="17"/>
       <c r="C113" s="17"/>
       <c r="D113" s="17"/>
@@ -4358,10 +4358,10 @@
       <c r="J113" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="K113" s="15"/>
+      <c r="K113" s="18"/>
     </row>
     <row r="114" spans="1:11" ht="57" x14ac:dyDescent="0.25">
-      <c r="A114" s="16"/>
+      <c r="A114" s="22"/>
       <c r="B114" s="17"/>
       <c r="C114" s="17"/>
       <c r="D114" s="17"/>
@@ -4373,10 +4373,10 @@
       <c r="J114" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="K114" s="15"/>
+      <c r="K114" s="18"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="16"/>
+      <c r="A115" s="22"/>
       <c r="B115" s="17"/>
       <c r="C115" s="17"/>
       <c r="D115" s="17"/>
@@ -4388,7 +4388,7 @@
       <c r="J115" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="K115" s="15"/>
+      <c r="K115" s="18"/>
     </row>
     <row r="116" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A116" s="9"/>
@@ -4743,42 +4743,42 @@
       <c r="K131" s="1"/>
     </row>
     <row r="132" spans="1:11" ht="141" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="18"/>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14" t="s">
+      <c r="A132" s="19"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G132" s="14" t="s">
+      <c r="D132" s="20"/>
+      <c r="E132" s="20"/>
+      <c r="F132" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G132" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="H132" s="14" t="s">
+      <c r="H132" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="I132" s="14"/>
+      <c r="I132" s="20"/>
       <c r="J132" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="K132" s="15"/>
+      <c r="K132" s="18"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="18"/>
-      <c r="B133" s="14"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c r="G133" s="14"/>
-      <c r="H133" s="14"/>
-      <c r="I133" s="14"/>
+      <c r="A133" s="19"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="20"/>
+      <c r="D133" s="20"/>
+      <c r="E133" s="20"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="20"/>
+      <c r="H133" s="20"/>
+      <c r="I133" s="20"/>
       <c r="J133" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="K133" s="15"/>
+      <c r="K133" s="18"/>
     </row>
     <row r="134" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A134" s="10"/>
@@ -5591,6 +5591,80 @@
     </row>
   </sheetData>
   <mergeCells count="87">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F94:F96"/>
+    <mergeCell ref="G94:G96"/>
+    <mergeCell ref="I94:I96"/>
+    <mergeCell ref="J94:J96"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="E94:E96"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="C112:C115"/>
+    <mergeCell ref="D112:D115"/>
+    <mergeCell ref="E112:E115"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="J109:J110"/>
+    <mergeCell ref="K109:K110"/>
+    <mergeCell ref="F112:F115"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="H132:H133"/>
+    <mergeCell ref="I132:I133"/>
+    <mergeCell ref="K132:K133"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="E132:E133"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="G112:G115"/>
     <mergeCell ref="H112:H115"/>
@@ -5603,81 +5677,7 @@
     <mergeCell ref="G35:G36"/>
     <mergeCell ref="H35:H36"/>
     <mergeCell ref="I35:I36"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="J109:J110"/>
-    <mergeCell ref="K109:K110"/>
-    <mergeCell ref="F112:F115"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G132:G133"/>
-    <mergeCell ref="H132:H133"/>
-    <mergeCell ref="I132:I133"/>
-    <mergeCell ref="K132:K133"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="B112:B115"/>
-    <mergeCell ref="C112:C115"/>
-    <mergeCell ref="D112:D115"/>
-    <mergeCell ref="E112:E115"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="E94:E96"/>
-    <mergeCell ref="F94:F96"/>
-    <mergeCell ref="G94:G96"/>
-    <mergeCell ref="I94:I96"/>
-    <mergeCell ref="J94:J96"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
     <mergeCell ref="J35:J36"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5686,10 +5686,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G152"/>
+      <selection activeCell="F3" sqref="F3:H114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5722,3392 +5723,3406 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="23" t="s">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="23" t="s">
+      <c r="A3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="G3" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="23" t="s">
+      <c r="G3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="23" t="s">
+    <row r="4" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="23" t="s">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="23" t="s">
+      <c r="A6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23" t="s">
+      <c r="E6" s="14"/>
+      <c r="F6" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="23" t="s">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23" t="s">
+      <c r="E7" s="14"/>
+      <c r="F7" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="G7" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="23" t="s">
+      <c r="G7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="23" t="s">
+      <c r="A8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="G8" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="23" t="s">
+      <c r="G8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="23" t="s">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="23" t="s">
+      <c r="A10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23" t="s">
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="23" t="s">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23" t="s">
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="G11" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="23" t="s">
+      <c r="G11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23" t="s">
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="23" t="s">
+      <c r="A13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23" t="s">
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="23" t="s">
+      <c r="H13" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23" t="s">
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="23" t="s">
+      <c r="A15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23" t="s">
+      <c r="E15" s="14"/>
+      <c r="F15" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="23" t="s">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23" t="s">
+      <c r="E16" s="14"/>
+      <c r="F16" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="G16" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="23" t="s">
+      <c r="G16" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23" t="s">
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="23" t="s">
+      <c r="A18" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23" t="s">
+      <c r="E18" s="14"/>
+      <c r="F18" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="G18" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="23" t="s">
+      <c r="G18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="G19" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="23" t="s">
+      <c r="G19" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23" t="s">
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="23" t="s">
+      <c r="H20" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23" t="s">
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="23" t="s">
+    <row r="22" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23" t="s">
+      <c r="E22" s="14"/>
+      <c r="F22" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="G22" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="23" t="s">
+      <c r="G22" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23" t="s">
+      <c r="E23" s="14"/>
+      <c r="F23" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="G23" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="23" t="s">
+      <c r="G23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23" t="s">
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="G24" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="23" t="s">
+      <c r="G24" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23" t="s">
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H25" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="23" t="s">
+      <c r="H25" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23" t="s">
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="G26" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="23" t="s">
+      <c r="G26" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23" t="s">
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="G27" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="23" t="s">
+      <c r="H27" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23" t="s">
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="H28" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="23" t="s">
+    <row r="29" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23" t="s">
+      <c r="E29" s="14"/>
+      <c r="F29" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="G29" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="23" t="s">
+      <c r="G29" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23" t="s">
+      <c r="E30" s="14"/>
+      <c r="F30" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="G30" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="23" t="s">
+      <c r="G30" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23" t="s">
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H31" s="23" t="s">
+      <c r="H31" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="23" t="s">
+    <row r="32" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23" t="s">
+      <c r="E32" s="14"/>
+      <c r="F32" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="G32" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="23" t="s">
+      <c r="G32" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23" t="s">
+      <c r="E33" s="14"/>
+      <c r="F33" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="G33" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="23" t="s">
+      <c r="G33" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23" t="s">
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H34" s="23" t="s">
+      <c r="H34" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="23" t="s">
+    <row r="35" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23" t="s">
+      <c r="E35" s="14"/>
+      <c r="F35" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="G35" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="23" t="s">
+      <c r="G35" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23" t="s">
+      <c r="E36" s="14"/>
+      <c r="F36" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="G36" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H36" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="23" t="s">
+      <c r="G36" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23" t="s">
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="G37" s="23" t="s">
+      <c r="G37" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H37" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="23" t="s">
+      <c r="H37" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23" t="s">
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="G38" s="23" t="s">
+      <c r="G38" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H38" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="23" t="s">
+      <c r="H38" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23" t="s">
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H39" s="23" t="s">
+      <c r="H39" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="23" t="s">
+    <row r="40" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23" t="s">
+      <c r="E40" s="14"/>
+      <c r="F40" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="G40" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H40" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="23" t="s">
+      <c r="G40" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="14"/>
+      <c r="F41" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="G41" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" s="23" t="s">
+      <c r="G41" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D42" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23" t="s">
+      <c r="E42" s="14"/>
+      <c r="F42" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="G42" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" s="23" t="s">
+      <c r="G42" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23" t="s">
+      <c r="E43" s="14"/>
+      <c r="F43" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="G43" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="23" t="s">
+      <c r="G43" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23" t="s">
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="G44" s="23" t="s">
+      <c r="G44" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H44" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="23" t="s">
+      <c r="H44" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C45" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23" t="s">
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H45" s="23" t="s">
+      <c r="H45" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="23" t="s">
+    <row r="46" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23" t="s">
+      <c r="E46" s="14"/>
+      <c r="F46" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="G46" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H46" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="23" t="s">
+      <c r="G46" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23" t="s">
+      <c r="E47" s="14"/>
+      <c r="F47" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="G47" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="23" t="s">
+      <c r="G47" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23" t="s">
+      <c r="E48" s="14"/>
+      <c r="F48" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="G48" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" s="23" t="s">
+      <c r="G48" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23" t="s">
+      <c r="E49" s="14"/>
+      <c r="F49" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="G49" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="23" t="s">
+      <c r="G49" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" s="23" t="s">
+      <c r="A50" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23" t="s">
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="G50" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H50" s="23" t="s">
+      <c r="G50" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51" s="23" t="s">
+      <c r="A51" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23" t="s">
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="G51" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H51" s="23" t="s">
-        <v>158</v>
+      <c r="G51" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" s="23" t="s">
+      <c r="A52" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="23" t="s">
+      <c r="C52" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23" t="s">
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="G52" s="23" t="s">
+      <c r="G52" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H52" s="23" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" s="23" t="s">
+      <c r="H52" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23" t="s">
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="G53" s="23" t="s">
+      <c r="G53" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H53" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" s="23" t="s">
+      <c r="H53" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C54" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23" t="s">
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="G54" s="23" t="s">
+      <c r="G54" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H54" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B55" s="23" t="s">
+      <c r="H54" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="C55" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23" t="s">
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="G55" s="23" t="s">
+      <c r="G55" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H55" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" s="23" t="s">
+      <c r="H55" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C56" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23" t="s">
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="G56" s="23" t="s">
+      <c r="G56" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H56" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57" s="23" t="s">
+      <c r="H56" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C57" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23" t="s">
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H57" s="23" t="s">
+      <c r="H57" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B58" s="23" t="s">
+    <row r="58" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C58" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D58" s="23" t="s">
+      <c r="D58" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23" t="s">
+      <c r="E58" s="14"/>
+      <c r="F58" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="G58" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B59" s="23" t="s">
+      <c r="G58" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C59" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D59" s="23" t="s">
+      <c r="D59" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23" t="s">
+      <c r="E59" s="14"/>
+      <c r="F59" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="G59" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B60" s="23" t="s">
+      <c r="G59" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="C60" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23" t="s">
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="G60" s="23" t="s">
+      <c r="G60" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H60" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61" s="23" t="s">
+      <c r="H60" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="C61" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23" t="s">
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="G61" s="23" t="s">
+      <c r="G61" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H61" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B62" s="23" t="s">
+      <c r="H61" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C62" s="23" t="s">
+      <c r="C62" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23" t="s">
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="G62" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B63" s="23" t="s">
+      <c r="G62" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="23" t="s">
+      <c r="C63" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23" t="s">
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="G63" s="23" t="s">
+      <c r="G63" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H63" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B64" s="23" t="s">
+      <c r="H63" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23" t="s">
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H64" s="23" t="s">
+      <c r="H64" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B65" s="23" t="s">
+      <c r="A65" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="C65" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23" t="s">
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="G65" s="23" t="s">
+      <c r="G65" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H65" s="23" t="s">
+      <c r="H65" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B66" s="23" t="s">
+    <row r="66" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C66" s="23" t="s">
+      <c r="C66" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23" t="s">
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="G66" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H66" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B67" s="23" t="s">
+      <c r="G66" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C67" s="23" t="s">
+      <c r="C67" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23" t="s">
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="G67" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H67" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B68" s="23" t="s">
+      <c r="G67" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H67" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C68" s="23" t="s">
+      <c r="C68" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23" t="s">
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="G68" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H68" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B69" s="23" t="s">
+      <c r="G68" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C69" s="23" t="s">
+      <c r="C69" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23" t="s">
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="G69" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H69" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B70" s="23" t="s">
+      <c r="G69" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C70" s="23" t="s">
+      <c r="C70" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23" t="s">
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="G70" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H70" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B71" s="23" t="s">
+      <c r="G70" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H70" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C71" s="23" t="s">
+      <c r="C71" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23" t="s">
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H71" s="23" t="s">
+      <c r="H71" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B72" s="23" t="s">
+    <row r="72" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C72" s="23" t="s">
+      <c r="C72" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="D72" s="23" t="s">
+      <c r="D72" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23" t="s">
+      <c r="E72" s="14"/>
+      <c r="F72" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="G72" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H72" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B73" s="23" t="s">
+      <c r="G72" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C73" s="23" t="s">
+      <c r="C73" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="D73" s="23" t="s">
+      <c r="D73" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23" t="s">
+      <c r="E73" s="14"/>
+      <c r="F73" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="G73" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H73" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B74" s="23" t="s">
+      <c r="G73" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C74" s="23" t="s">
+      <c r="C74" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="D74" s="23" t="s">
+      <c r="D74" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23" t="s">
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H74" s="23" t="s">
+      <c r="H74" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B75" s="23" t="s">
+      <c r="A75" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C75" s="23" t="s">
+      <c r="C75" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="D75" s="23" t="s">
+      <c r="D75" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="E75" s="23" t="s">
+      <c r="E75" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="F75" s="23" t="s">
+      <c r="F75" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="G75" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H75" s="23" t="s">
+      <c r="G75" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H75" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B76" s="23" t="s">
+    <row r="76" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C76" s="23" t="s">
+      <c r="C76" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="D76" s="23" t="s">
+      <c r="D76" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="E76" s="23" t="s">
+      <c r="E76" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="F76" s="23" t="s">
+      <c r="F76" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="G76" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H76" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B77" s="23" t="s">
+      <c r="G76" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C77" s="23" t="s">
+      <c r="C77" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="D77" s="23" t="s">
+      <c r="D77" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="E77" s="23" t="s">
+      <c r="E77" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="F77" s="23" t="s">
+      <c r="F77" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="G77" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H77" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B78" s="23" t="s">
+      <c r="G77" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C78" s="23" t="s">
+      <c r="C78" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="D78" s="23" t="s">
+      <c r="D78" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="E78" s="23" t="s">
+      <c r="E78" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="F78" s="23" t="s">
+      <c r="F78" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="G78" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H78" s="23" t="s">
+      <c r="G78" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H78" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B79" s="23" t="s">
+      <c r="A79" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C79" s="23" t="s">
+      <c r="C79" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="D79" s="23" t="s">
+      <c r="D79" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="E79" s="23" t="s">
+      <c r="E79" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="F79" s="23" t="s">
+      <c r="F79" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="G79" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H79" s="23" t="s">
+      <c r="G79" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H79" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B80" s="23" t="s">
+    <row r="80" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C80" s="23" t="s">
+      <c r="C80" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="D80" s="23" t="s">
+      <c r="D80" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="E80" s="23" t="s">
+      <c r="E80" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="F80" s="23" t="s">
+      <c r="F80" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="G80" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H80" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B81" s="23" t="s">
+      <c r="G80" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H80" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23" t="s">
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H81" s="23" t="s">
+      <c r="H81" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B82" s="23" t="s">
+      <c r="A82" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C82" s="23" t="s">
+      <c r="C82" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="D82" s="23" t="s">
+      <c r="D82" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="E82" s="23"/>
-      <c r="F82" s="23" t="s">
+      <c r="E82" s="14"/>
+      <c r="F82" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="G82" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H82" s="23" t="s">
+      <c r="G82" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H82" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B83" s="23" t="s">
+    <row r="83" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C83" s="23" t="s">
+      <c r="C83" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="23" t="s">
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="G83" s="23" t="s">
+      <c r="G83" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H83" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B84" s="23" t="s">
+      <c r="H83" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C84" s="23" t="s">
+      <c r="C84" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="23" t="s">
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14" t="s">
         <v>405</v>
       </c>
-      <c r="G84" s="23" t="s">
+      <c r="G84" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H84" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B85" s="23" t="s">
+      <c r="H84" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C85" s="23" t="s">
+      <c r="C85" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="23" t="s">
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="H85" s="23" t="s">
+      <c r="H85" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B86" s="23" t="s">
+      <c r="A86" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C86" s="23" t="s">
+      <c r="C86" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="D86" s="23" t="s">
+      <c r="D86" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E86" s="23"/>
-      <c r="F86" s="23" t="s">
+      <c r="E86" s="14"/>
+      <c r="F86" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="G86" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H86" s="23" t="s">
+      <c r="G86" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H86" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B87" s="23" t="s">
+    <row r="87" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C87" s="23" t="s">
+      <c r="C87" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="D87" s="23" t="s">
+      <c r="D87" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E87" s="23"/>
-      <c r="F87" s="23" t="s">
+      <c r="E87" s="14"/>
+      <c r="F87" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="G87" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H87" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B88" s="23" t="s">
+      <c r="G87" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H87" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C88" s="23" t="s">
+      <c r="C88" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="D88" s="23"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23" t="s">
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="H88" s="23" t="s">
+      <c r="H88" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B89" s="23" t="s">
+      <c r="A89" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C89" s="23" t="s">
+      <c r="C89" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="D89" s="23" t="s">
+      <c r="D89" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23" t="s">
+      <c r="E89" s="14"/>
+      <c r="F89" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="G89" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H89" s="23" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B90" s="23" t="s">
+      <c r="G89" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C90" s="23" t="s">
+      <c r="C90" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="D90" s="23" t="s">
+      <c r="D90" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23" t="s">
+      <c r="E90" s="14"/>
+      <c r="F90" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="G90" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H90" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B91" s="23" t="s">
+      <c r="G90" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H90" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C91" s="23" t="s">
+      <c r="C91" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23" t="s">
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="H91" s="23" t="s">
+      <c r="H91" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B92" s="23" t="s">
+    <row r="92" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C92" s="23" t="s">
+      <c r="C92" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="D92" s="23" t="s">
+      <c r="D92" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23" t="s">
+      <c r="E92" s="14"/>
+      <c r="F92" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="G92" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H92" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B93" s="23" t="s">
+      <c r="G92" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H92" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C93" s="23" t="s">
+      <c r="C93" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="D93" s="23" t="s">
+      <c r="D93" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23" t="s">
+      <c r="E93" s="14"/>
+      <c r="F93" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="G93" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H93" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B94" s="23" t="s">
+      <c r="G93" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H93" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C94" s="23"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="23" t="s">
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H94" s="23" t="s">
+      <c r="H94" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B95" s="23" t="s">
+      <c r="A95" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C95" s="23" t="s">
+      <c r="C95" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="D95" s="23"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="23" t="s">
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="G95" s="23" t="s">
+      <c r="G95" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H95" s="23" t="s">
+      <c r="H95" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B96" s="23" t="s">
+      <c r="A96" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C96" s="23" t="s">
+      <c r="C96" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="D96" s="23"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="23" t="s">
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14" t="s">
         <v>407</v>
       </c>
-      <c r="G96" s="23" t="s">
+      <c r="G96" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H96" s="23" t="s">
+      <c r="H96" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B97" s="23" t="s">
+      <c r="A97" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C97" s="23" t="s">
+      <c r="C97" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D97" s="23"/>
-      <c r="E97" s="23"/>
-      <c r="F97" s="23" t="s">
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="G97" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H97" s="23" t="s">
+      <c r="G97" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H97" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B98" s="23" t="s">
+    <row r="98" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C98" s="23" t="s">
+      <c r="C98" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D98" s="23" t="s">
+      <c r="D98" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="E98" s="23"/>
-      <c r="F98" s="23" t="s">
+      <c r="E98" s="14"/>
+      <c r="F98" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="G98" s="23" t="s">
+      <c r="G98" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H98" s="23" t="s">
+      <c r="H98" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B99" s="23" t="s">
+      <c r="A99" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C99" s="23" t="s">
+      <c r="C99" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D99" s="23" t="s">
+      <c r="D99" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E99" s="23"/>
-      <c r="F99" s="23" t="s">
+      <c r="E99" s="14"/>
+      <c r="F99" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="G99" s="23" t="s">
+      <c r="G99" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H99" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B100" s="23" t="s">
+      <c r="H99" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B100" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C100" s="23" t="s">
+      <c r="C100" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D100" s="23" t="s">
+      <c r="D100" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="E100" s="23"/>
-      <c r="F100" s="23"/>
-      <c r="G100" s="23" t="s">
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H100" s="23" t="s">
-        <v>158</v>
+      <c r="H100" s="14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B101" s="23" t="s">
+      <c r="A101" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C101" s="23" t="s">
+      <c r="C101" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D101" s="23" t="s">
+      <c r="D101" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="E101" s="23" t="s">
+      <c r="E101" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="F101" s="23" t="s">
+      <c r="F101" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="G101" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H101" s="23" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B102" s="23" t="s">
+      <c r="G101" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B102" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C102" s="23" t="s">
+      <c r="C102" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D102" s="23" t="s">
+      <c r="D102" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="E102" s="23" t="s">
+      <c r="E102" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="F102" s="23" t="s">
+      <c r="F102" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="G102" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H102" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B103" s="23" t="s">
+      <c r="G102" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B103" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C103" s="23" t="s">
+      <c r="C103" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D103" s="23" t="s">
+      <c r="D103" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="E103" s="23" t="s">
+      <c r="E103" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="F103" s="23" t="s">
+      <c r="F103" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="G103" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H103" s="23" t="s">
+      <c r="G103" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H103" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B104" s="23" t="s">
+      <c r="A104" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B104" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C104" s="23" t="s">
+      <c r="C104" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D104" s="23" t="s">
+      <c r="D104" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="E104" s="23" t="s">
+      <c r="E104" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="F104" s="23" t="s">
+      <c r="F104" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="G104" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H104" s="23" t="s">
-        <v>158</v>
+      <c r="G104" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H104" s="14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B105" s="23" t="s">
+      <c r="A105" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B105" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C105" s="23" t="s">
+      <c r="C105" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D105" s="23" t="s">
+      <c r="D105" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="E105" s="23" t="s">
+      <c r="E105" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="F105" s="23" t="s">
+      <c r="F105" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="G105" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H105" s="23" t="s">
-        <v>158</v>
+      <c r="G105" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H105" s="14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B106" s="23" t="s">
+      <c r="A106" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B106" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C106" s="23" t="s">
+      <c r="C106" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D106" s="23" t="s">
+      <c r="D106" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="E106" s="23" t="s">
+      <c r="E106" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="F106" s="23" t="s">
+      <c r="F106" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="G106" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H106" s="23" t="s">
-        <v>158</v>
+      <c r="G106" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H106" s="14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B107" s="23" t="s">
+      <c r="A107" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C107" s="23" t="s">
+      <c r="C107" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D107" s="23" t="s">
+      <c r="D107" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="E107" s="23" t="s">
+      <c r="E107" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="F107" s="23" t="s">
+      <c r="F107" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="G107" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H107" s="23" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B108" s="23" t="s">
+      <c r="G107" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H107" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B108" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C108" s="23" t="s">
+      <c r="C108" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="D108" s="23"/>
-      <c r="E108" s="23"/>
-      <c r="F108" s="23"/>
-      <c r="G108" s="23" t="s">
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c r="G108" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H108" s="23" t="s">
+      <c r="H108" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B109" s="23" t="s">
+      <c r="A109" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B109" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C109" s="23"/>
-      <c r="D109" s="23" t="s">
+      <c r="C109" s="14"/>
+      <c r="D109" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E109" s="23"/>
-      <c r="F109" s="23" t="s">
+      <c r="E109" s="14"/>
+      <c r="F109" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="G109" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H109" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B110" s="23" t="s">
+      <c r="G109" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H109" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B110" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C110" s="23"/>
-      <c r="D110" s="23" t="s">
+      <c r="C110" s="14"/>
+      <c r="D110" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E110" s="23"/>
-      <c r="F110" s="23" t="s">
+      <c r="E110" s="14"/>
+      <c r="F110" s="14" t="s">
         <v>410</v>
       </c>
-      <c r="G110" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H110" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B111" s="23" t="s">
+      <c r="G110" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H110" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B111" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C111" s="23" t="s">
+      <c r="C111" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="D111" s="23"/>
-      <c r="E111" s="23"/>
-      <c r="F111" s="23" t="s">
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="G111" s="23" t="s">
+      <c r="G111" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="H111" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B112" s="23" t="s">
+      <c r="H111" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C112" s="23" t="s">
+      <c r="C112" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="D112" s="23"/>
-      <c r="E112" s="23"/>
-      <c r="F112" s="23" t="s">
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="G112" s="23" t="s">
+      <c r="G112" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="H112" s="23" t="s">
+      <c r="H112" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B113" s="23" t="s">
+      <c r="A113" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B113" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C113" s="23" t="s">
+      <c r="C113" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="D113" s="23"/>
-      <c r="E113" s="23"/>
-      <c r="F113" s="23" t="s">
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="G113" s="23" t="s">
+      <c r="G113" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H113" s="23" t="s">
+      <c r="H113" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B114" s="23" t="s">
+      <c r="A114" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B114" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C114" s="23" t="s">
+      <c r="C114" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="D114" s="23"/>
-      <c r="E114" s="23"/>
-      <c r="F114" s="23" t="s">
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="G114" s="23" t="s">
+      <c r="G114" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="H114" s="23" t="s">
+      <c r="H114" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B115" s="23" t="s">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B115" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C115" s="23"/>
-      <c r="D115" s="23"/>
-      <c r="E115" s="23"/>
-      <c r="F115" s="23"/>
-      <c r="G115" s="23" t="s">
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H115" s="23" t="s">
+      <c r="H115" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B116" s="23" t="s">
+    <row r="116" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B116" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C116" s="23" t="s">
+      <c r="C116" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="D116" s="23"/>
-      <c r="E116" s="23"/>
-      <c r="F116" s="23" t="s">
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="G116" s="23" t="s">
+      <c r="G116" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H116" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B117" s="23" t="s">
+      <c r="H116" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B117" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C117" s="23" t="s">
+      <c r="C117" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="D117" s="23"/>
-      <c r="E117" s="23"/>
-      <c r="F117" s="23" t="s">
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="G117" s="23" t="s">
+      <c r="G117" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H117" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B118" s="23" t="s">
+      <c r="H117" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B118" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C118" s="23" t="s">
+      <c r="C118" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="D118" s="23"/>
-      <c r="E118" s="23"/>
-      <c r="F118" s="23" t="s">
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="G118" s="23" t="s">
+      <c r="G118" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="H118" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B119" s="23" t="s">
+      <c r="H118" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B119" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C119" s="23" t="s">
+      <c r="C119" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="D119" s="23"/>
-      <c r="E119" s="23"/>
-      <c r="F119" s="23" t="s">
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14" t="s">
         <v>418</v>
       </c>
-      <c r="G119" s="23" t="s">
+      <c r="G119" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="H119" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B120" s="23" t="s">
+      <c r="H119" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B120" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="C120" s="23"/>
-      <c r="D120" s="23"/>
-      <c r="E120" s="23"/>
-      <c r="F120" s="23"/>
-      <c r="G120" s="23" t="s">
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H120" s="23" t="s">
+      <c r="H120" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B121" s="23" t="s">
+    <row r="121" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B121" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="C121" s="23" t="s">
+      <c r="C121" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="D121" s="23"/>
-      <c r="E121" s="23"/>
-      <c r="F121" s="23" t="s">
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="G121" s="23" t="s">
+      <c r="G121" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H121" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B122" s="23" t="s">
+      <c r="H121" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B122" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="C122" s="23" t="s">
+      <c r="C122" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="D122" s="23"/>
-      <c r="E122" s="23"/>
-      <c r="F122" s="23" t="s">
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="G122" s="23" t="s">
+      <c r="G122" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H122" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B123" s="23" t="s">
+      <c r="H122" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B123" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="C123" s="23" t="s">
+      <c r="C123" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="D123" s="23"/>
-      <c r="E123" s="23"/>
-      <c r="F123" s="23" t="s">
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="G123" s="23" t="s">
+      <c r="G123" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H123" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B124" s="23" t="s">
+      <c r="H123" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B124" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="C124" s="23" t="s">
+      <c r="C124" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="D124" s="23"/>
-      <c r="E124" s="23"/>
-      <c r="F124" s="23" t="s">
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14" t="s">
         <v>422</v>
       </c>
-      <c r="G124" s="23" t="s">
+      <c r="G124" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H124" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B125" s="23" t="s">
+      <c r="H124" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B125" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="C125" s="23" t="s">
+      <c r="C125" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="D125" s="23"/>
-      <c r="E125" s="23"/>
-      <c r="F125" s="23" t="s">
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="G125" s="23" t="s">
+      <c r="G125" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H125" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B126" s="23" t="s">
+      <c r="H125" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B126" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="C126" s="23" t="s">
+      <c r="C126" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="D126" s="23"/>
-      <c r="E126" s="23"/>
-      <c r="F126" s="23" t="s">
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="G126" s="23" t="s">
+      <c r="G126" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H126" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B127" s="23" t="s">
+      <c r="H126" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B127" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="C127" s="23" t="s">
+      <c r="C127" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="D127" s="23"/>
-      <c r="E127" s="23"/>
-      <c r="F127" s="23" t="s">
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="G127" s="23" t="s">
+      <c r="G127" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H127" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B128" s="23" t="s">
+      <c r="H127" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B128" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="C128" s="23" t="s">
+      <c r="C128" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="D128" s="23"/>
-      <c r="E128" s="23"/>
-      <c r="F128" s="23" t="s">
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="G128" s="23" t="s">
+      <c r="G128" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H128" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B129" s="23" t="s">
+      <c r="H128" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B129" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="C129" s="23" t="s">
+      <c r="C129" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="D129" s="23"/>
-      <c r="E129" s="23"/>
-      <c r="F129" s="23" t="s">
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="G129" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H129" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B130" s="23" t="s">
+      <c r="G129" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H129" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B130" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="C130" s="23" t="s">
+      <c r="C130" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="D130" s="23"/>
-      <c r="E130" s="23"/>
-      <c r="F130" s="23" t="s">
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14" t="s">
         <v>428</v>
       </c>
-      <c r="G130" s="23" t="s">
+      <c r="G130" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H130" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B131" s="23" t="s">
+      <c r="H130" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B131" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="C131" s="23" t="s">
+      <c r="C131" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D131" s="23"/>
-      <c r="E131" s="23"/>
-      <c r="F131" s="23" t="s">
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="G131" s="23" t="s">
+      <c r="G131" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H131" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B132" s="23" t="s">
+      <c r="H131" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B132" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="C132" s="23" t="s">
+      <c r="C132" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="D132" s="23"/>
-      <c r="E132" s="23"/>
-      <c r="F132" s="23" t="s">
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="G132" s="23" t="s">
+      <c r="G132" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H132" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B133" s="23" t="s">
+      <c r="H132" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B133" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="C133" s="23" t="s">
+      <c r="C133" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="D133" s="23"/>
-      <c r="E133" s="23"/>
-      <c r="F133" s="23" t="s">
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="G133" s="23" t="s">
+      <c r="G133" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H133" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B134" s="23" t="s">
+      <c r="H133" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B134" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="C134" s="23" t="s">
+      <c r="C134" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="D134" s="23"/>
-      <c r="E134" s="23"/>
-      <c r="F134" s="23" t="s">
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="G134" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H134" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B135" s="23" t="s">
+      <c r="G134" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H134" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B135" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="C135" s="23" t="s">
+      <c r="C135" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="D135" s="23"/>
-      <c r="E135" s="23"/>
-      <c r="F135" s="23" t="s">
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="G135" s="23" t="s">
+      <c r="G135" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H135" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B136" s="23" t="s">
+      <c r="H135" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B136" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="C136" s="23" t="s">
+      <c r="C136" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="D136" s="23"/>
-      <c r="E136" s="23"/>
-      <c r="F136" s="23" t="s">
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14" t="s">
         <v>434</v>
       </c>
-      <c r="G136" s="23" t="s">
+      <c r="G136" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H136" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B137" s="23" t="s">
+      <c r="H136" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B137" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="C137" s="23" t="s">
+      <c r="C137" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="D137" s="23"/>
-      <c r="E137" s="23"/>
-      <c r="F137" s="23"/>
-      <c r="G137" s="23" t="s">
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c r="G137" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H137" s="23" t="s">
+      <c r="H137" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B138" s="23" t="s">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B138" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="C138" s="23" t="s">
+      <c r="C138" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="D138" s="23"/>
-      <c r="E138" s="23"/>
-      <c r="F138" s="23"/>
-      <c r="G138" s="23" t="s">
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c r="G138" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H138" s="23" t="s">
+      <c r="H138" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B139" s="23" t="s">
+    <row r="139" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B139" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="C139" s="23" t="s">
+      <c r="C139" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="D139" s="23" t="s">
+      <c r="D139" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="E139" s="23"/>
-      <c r="F139" s="23" t="s">
+      <c r="E139" s="14"/>
+      <c r="F139" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="G139" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H139" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B140" s="23" t="s">
+      <c r="G139" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H139" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B140" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="C140" s="23" t="s">
+      <c r="C140" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="D140" s="23" t="s">
+      <c r="D140" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="E140" s="23"/>
-      <c r="F140" s="23" t="s">
+      <c r="E140" s="14"/>
+      <c r="F140" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="G140" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H140" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B141" s="23" t="s">
+      <c r="G140" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H140" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B141" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="C141" s="23" t="s">
+      <c r="C141" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="D141" s="23" t="s">
+      <c r="D141" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="E141" s="23"/>
-      <c r="F141" s="23" t="s">
+      <c r="E141" s="14"/>
+      <c r="F141" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="G141" s="23" t="s">
+      <c r="G141" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H141" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B142" s="23" t="s">
+      <c r="H141" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B142" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="C142" s="23" t="s">
+      <c r="C142" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="D142" s="23" t="s">
+      <c r="D142" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="E142" s="23"/>
-      <c r="F142" s="23" t="s">
+      <c r="E142" s="14"/>
+      <c r="F142" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="G142" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H142" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B143" s="23" t="s">
+      <c r="G142" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H142" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B143" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C143" s="23"/>
-      <c r="D143" s="23"/>
-      <c r="E143" s="23"/>
-      <c r="F143" s="23"/>
-      <c r="G143" s="23" t="s">
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c r="G143" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="H143" s="23" t="s">
+      <c r="H143" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B144" s="23" t="s">
+    <row r="144" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B144" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C144" s="23" t="s">
+      <c r="C144" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="D144" s="23"/>
-      <c r="E144" s="23"/>
-      <c r="F144" s="23" t="s">
+      <c r="D144" s="14"/>
+      <c r="E144" s="14"/>
+      <c r="F144" s="14" t="s">
         <v>435</v>
       </c>
-      <c r="G144" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H144" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B145" s="23" t="s">
+      <c r="G144" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H144" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B145" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C145" s="23" t="s">
+      <c r="C145" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="D145" s="23"/>
-      <c r="E145" s="23"/>
-      <c r="F145" s="23" t="s">
+      <c r="D145" s="14"/>
+      <c r="E145" s="14"/>
+      <c r="F145" s="14" t="s">
         <v>436</v>
       </c>
-      <c r="G145" s="23" t="s">
+      <c r="G145" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H145" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B146" s="23" t="s">
+      <c r="H145" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B146" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C146" s="23" t="s">
+      <c r="C146" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="D146" s="23"/>
-      <c r="E146" s="23"/>
-      <c r="F146" s="23" t="s">
+      <c r="D146" s="14"/>
+      <c r="E146" s="14"/>
+      <c r="F146" s="14" t="s">
         <v>437</v>
       </c>
-      <c r="G146" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H146" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B147" s="23" t="s">
+      <c r="G146" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H146" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B147" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C147" s="23" t="s">
+      <c r="C147" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="D147" s="23"/>
-      <c r="E147" s="23"/>
-      <c r="F147" s="23" t="s">
+      <c r="D147" s="14"/>
+      <c r="E147" s="14"/>
+      <c r="F147" s="14" t="s">
         <v>438</v>
       </c>
-      <c r="G147" s="23" t="s">
+      <c r="G147" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H147" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B148" s="23" t="s">
+      <c r="H147" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B148" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C148" s="23" t="s">
+      <c r="C148" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="D148" s="23"/>
-      <c r="E148" s="23"/>
-      <c r="F148" s="23" t="s">
+      <c r="D148" s="14"/>
+      <c r="E148" s="14"/>
+      <c r="F148" s="14" t="s">
         <v>439</v>
       </c>
-      <c r="G148" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H148" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B149" s="23" t="s">
+      <c r="G148" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H148" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B149" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C149" s="23" t="s">
+      <c r="C149" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="D149" s="23"/>
-      <c r="E149" s="23"/>
-      <c r="F149" s="23" t="s">
+      <c r="D149" s="14"/>
+      <c r="E149" s="14"/>
+      <c r="F149" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="G149" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H149" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B150" s="23" t="s">
+      <c r="G149" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H149" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B150" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C150" s="23" t="s">
+      <c r="C150" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="D150" s="23"/>
-      <c r="E150" s="23"/>
-      <c r="F150" s="23" t="s">
+      <c r="D150" s="14"/>
+      <c r="E150" s="14"/>
+      <c r="F150" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="G150" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H150" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B151" s="23" t="s">
+      <c r="G150" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H150" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B151" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C151" s="23" t="s">
+      <c r="C151" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="D151" s="23"/>
-      <c r="E151" s="23"/>
-      <c r="F151" s="23" t="s">
+      <c r="D151" s="14"/>
+      <c r="E151" s="14"/>
+      <c r="F151" s="14" t="s">
         <v>442</v>
       </c>
-      <c r="G151" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H151" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B152" s="23" t="s">
+      <c r="G151" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H151" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B152" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C152" s="23" t="s">
+      <c r="C152" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="D152" s="23"/>
-      <c r="E152" s="23"/>
-      <c r="F152" s="23" t="s">
+      <c r="D152" s="14"/>
+      <c r="E152" s="14"/>
+      <c r="F152" s="14" t="s">
         <v>443</v>
       </c>
-      <c r="G152" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H152" s="23" t="s">
+      <c r="G152" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H152" s="14" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H152"/>
+  <autoFilter ref="A1:H152">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Boolean"/>
+        <filter val="Date"/>
+        <filter val="Integer"/>
+        <filter val="String"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Y"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
